--- a/firstProject/output.xlsx
+++ b/firstProject/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="940" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="269">
   <si>
     <t>authority</t>
   </si>
@@ -41,19 +41,52 @@
     <t>otherInfo</t>
   </si>
   <si>
+    <t>資材部</t>
+  </si>
+  <si>
+    <t>佐藤 みさと</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>2023-05-15T01:41:19</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>080-3012-5263</t>
+  </si>
+  <si>
     <t>総務部</t>
   </si>
   <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>危険</t>
+  </si>
+  <si>
+    <t>2023-05-14T23:55:08</t>
+  </si>
+  <si>
+    <t>dd</t>
+  </si>
+  <si>
+    <t>080-1111-2222</t>
+  </si>
+  <si>
     <t>加藤 悠介</t>
   </si>
   <si>
-    <t>安全</t>
-  </si>
-  <si>
-    <t>2023-05-14T20:28:06</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>2023-05-14T23:16:29</t>
   </si>
   <si>
     <t>tasukete!!!!!!!!!!!!!</t>
@@ -107,31 +140,37 @@
     <t>高橋 真理子</t>
   </si>
   <si>
-    <t>チョンウォン</t>
-  </si>
-  <si>
-    <t>demo501</t>
-  </si>
-  <si>
-    <t>demo502</t>
-  </si>
-  <si>
-    <t>demo503</t>
-  </si>
-  <si>
-    <t>demo504</t>
-  </si>
-  <si>
-    <t>demo505</t>
+    <t>加藤 まりな</t>
+  </si>
+  <si>
+    <t>070-7439-8462</t>
+  </si>
+  <si>
+    <t>山田 さより</t>
+  </si>
+  <si>
+    <t>中村 はるか</t>
+  </si>
+  <si>
+    <t>小林 たかなり</t>
+  </si>
+  <si>
+    <t>加藤 ゆうじ</t>
+  </si>
+  <si>
+    <t>田村 りお</t>
   </si>
   <si>
     <t>鈴木 匠</t>
   </si>
   <si>
+    <t>080-7940-6173</t>
+  </si>
+  <si>
     <t>渡辺 剛</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>080-2201-8698</t>
   </si>
   <si>
     <t>法務部</t>
@@ -140,183 +179,351 @@
     <t>高橋 武</t>
   </si>
   <si>
+    <t>010-7467-8874</t>
+  </si>
+  <si>
     <t>藤田　昇</t>
   </si>
   <si>
+    <t>070-2639-2053</t>
+  </si>
+  <si>
     <t>中田 美穂</t>
   </si>
   <si>
+    <t>080-6976-9203</t>
+  </si>
+  <si>
     <t>田中 結衣</t>
   </si>
   <si>
+    <t>080-7039-7955</t>
+  </si>
+  <si>
     <t>山田 大介</t>
   </si>
   <si>
+    <t>010-2422-2340</t>
+  </si>
+  <si>
     <t>山本 花子</t>
   </si>
   <si>
+    <t>010-7333-5344</t>
+  </si>
+  <si>
     <t>佐藤 正男</t>
   </si>
   <si>
+    <t>010-3723-1580</t>
+  </si>
+  <si>
     <t>田中 太郎</t>
   </si>
   <si>
+    <t>010-7068-4108</t>
+  </si>
+  <si>
     <t>木村 由美</t>
   </si>
   <si>
+    <t>010-4733-8924</t>
+  </si>
+  <si>
     <t>人事部</t>
   </si>
   <si>
     <t>田中　ひろゆき</t>
   </si>
   <si>
-    <t>miyu</t>
+    <t>080-3216-5772</t>
+  </si>
+  <si>
+    <t>中山 そら</t>
+  </si>
+  <si>
+    <t>070-0573-2743</t>
   </si>
   <si>
     <t>佐々木 花音</t>
   </si>
   <si>
+    <t>080-7432-4125</t>
+  </si>
+  <si>
     <t>木村 結愛</t>
   </si>
   <si>
+    <t>080-9823-5893</t>
+  </si>
+  <si>
     <t>林 心愛</t>
   </si>
   <si>
+    <t>080-1928-8923</t>
+  </si>
+  <si>
     <t>山口 美咲</t>
   </si>
   <si>
+    <t>080-2335-1522</t>
+  </si>
+  <si>
     <t>松本 優愛</t>
   </si>
   <si>
+    <t>080-7325-2984</t>
+  </si>
+  <si>
     <t>井上 美結</t>
   </si>
   <si>
+    <t>080-6592-9684</t>
+  </si>
+  <si>
     <t>清水 莉愛</t>
   </si>
   <si>
+    <t>080-1902-4794</t>
+  </si>
+  <si>
     <t>山崎 陽葵</t>
   </si>
   <si>
+    <t>080-2532-4382</t>
+  </si>
+  <si>
     <t>佐々野 悠真</t>
   </si>
   <si>
+    <t>080-2352-7862</t>
+  </si>
+  <si>
     <t>小川 湊斗</t>
   </si>
   <si>
+    <t>080-2503-1283</t>
+  </si>
+  <si>
     <t>高橋 翔太</t>
   </si>
   <si>
+    <t>080-5898-8746</t>
+  </si>
+  <si>
     <t>鈴木 真理子</t>
   </si>
   <si>
+    <t>010-3435-9154</t>
+  </si>
+  <si>
     <t>加藤 恵</t>
   </si>
   <si>
+    <t>080-5050-8225</t>
+  </si>
+  <si>
     <t>経理部</t>
   </si>
   <si>
     <t>吉田真由香</t>
   </si>
   <si>
+    <t>080-1923-3582</t>
+  </si>
+  <si>
     <t>中島 美穂</t>
   </si>
   <si>
-    <t>KAZUKI</t>
+    <t>080-2317-4132</t>
+  </si>
+  <si>
+    <t>伊藤 けいた</t>
+  </si>
+  <si>
+    <t>070-5823-1057</t>
   </si>
   <si>
     <t>hyunjin</t>
   </si>
   <si>
+    <t>010-1234-1234</t>
+  </si>
+  <si>
     <t>伊藤 美香</t>
   </si>
   <si>
+    <t>010-2970-5228</t>
+  </si>
+  <si>
     <t>林 結愛</t>
   </si>
   <si>
+    <t>080-4522-9923</t>
+  </si>
+  <si>
     <t>山口 心愛</t>
   </si>
   <si>
+    <t>080-2416-1372</t>
+  </si>
+  <si>
     <t>松本 美咲</t>
   </si>
   <si>
+    <t>080-8823-2831</t>
+  </si>
+  <si>
     <t>小林 愛</t>
   </si>
   <si>
+    <t>080-6090-1842</t>
+  </si>
+  <si>
     <t>佐々木 愛子</t>
   </si>
   <si>
+    <t>080-8660-9436</t>
+  </si>
+  <si>
     <t>広報部</t>
   </si>
   <si>
     <t>山口 沙耶</t>
   </si>
   <si>
+    <t>080-8887-8342</t>
+  </si>
+  <si>
     <t>松本 健太</t>
   </si>
   <si>
+    <t>080-3677-6978</t>
+  </si>
+  <si>
     <t>久乗 健太</t>
   </si>
   <si>
+    <t>070-5722-0285</t>
+  </si>
+  <si>
     <t>渡辺 明美</t>
   </si>
   <si>
+    <t>010-2643-7816</t>
+  </si>
+  <si>
     <t>田村 香</t>
   </si>
   <si>
+    <t>080-6047-1716</t>
+  </si>
+  <si>
     <t>choijongwon</t>
   </si>
   <si>
+    <t>010-2222-3333</t>
+  </si>
+  <si>
     <t>開発部</t>
   </si>
   <si>
     <t>藤原　秋</t>
   </si>
   <si>
+    <t>080-3122-9837</t>
+  </si>
+  <si>
     <t>中村 瑛斗</t>
   </si>
   <si>
+    <t>080-6213-2473</t>
+  </si>
+  <si>
     <t>小林 葵</t>
   </si>
   <si>
+    <t>080-4723-2123</t>
+  </si>
+  <si>
     <t>片山 美結</t>
   </si>
   <si>
+    <t>080-2583-8924</t>
+  </si>
+  <si>
     <t>岩田 和貴</t>
   </si>
   <si>
+    <t>080-7893-6892</t>
+  </si>
+  <si>
     <t>山田 博之</t>
   </si>
   <si>
+    <t>080-9527-8884</t>
+  </si>
+  <si>
     <t>中島 俊介</t>
   </si>
   <si>
+    <t>080-5840-1549</t>
+  </si>
+  <si>
     <t>齋藤 美智子</t>
   </si>
   <si>
+    <t>080-7223-3469</t>
+  </si>
+  <si>
     <t>渡辺 樹</t>
   </si>
   <si>
+    <t>080-2259-0195</t>
+  </si>
+  <si>
     <t>伊藤 葵</t>
   </si>
   <si>
+    <t>080-5213-3021</t>
+  </si>
+  <si>
     <t>山田 湊</t>
   </si>
   <si>
+    <t>080-8105-7723</t>
+  </si>
+  <si>
     <t>中村 結菜</t>
   </si>
   <si>
+    <t>080-1205-3363</t>
+  </si>
+  <si>
     <t>小林 美羽</t>
   </si>
   <si>
+    <t>080-0623-5592</t>
+  </si>
+  <si>
     <t>加藤 莉子</t>
   </si>
   <si>
+    <t>080-6011-2317</t>
+  </si>
+  <si>
     <t>井上 優愛</t>
   </si>
   <si>
+    <t>080-3055-3684</t>
+  </si>
+  <si>
     <t>加藤 一郎</t>
   </si>
   <si>
+    <t>010-7230-1466</t>
+  </si>
+  <si>
     <t>財務部</t>
   </si>
   <si>
@@ -326,75 +533,141 @@
     <t>田村 竜也</t>
   </si>
   <si>
+    <t>080-5230-9069</t>
+  </si>
+  <si>
     <t>中川 大輔</t>
   </si>
   <si>
+    <t>080-2362-7614</t>
+  </si>
+  <si>
     <t>鈴木 由紀子</t>
   </si>
   <si>
+    <t>080-1465-6584</t>
+  </si>
+  <si>
     <t>佐々木 陽菜</t>
   </si>
   <si>
+    <t>080-7324-7325</t>
+  </si>
+  <si>
     <t>木村 花音</t>
   </si>
   <si>
+    <t>080-7246-1247</t>
+  </si>
+  <si>
     <t>小林 佳奈</t>
   </si>
   <si>
+    <t>080-1654-7065</t>
+  </si>
+  <si>
     <t>鈴木 美咲</t>
   </si>
   <si>
+    <t>080-2987-9091</t>
+  </si>
+  <si>
     <t>加藤 千明</t>
   </si>
   <si>
+    <t>080-4859-2361</t>
+  </si>
+  <si>
     <t>経営戦略部</t>
   </si>
   <si>
     <t>松本 さやか</t>
   </si>
   <si>
+    <t>080-2653-1937</t>
+  </si>
+  <si>
     <t>山田 健太郎</t>
   </si>
   <si>
     <t>田村 めぐみ</t>
   </si>
   <si>
+    <t>080-7914-3115</t>
+  </si>
+  <si>
     <t>山田 ゆかり</t>
   </si>
   <si>
+    <t>080-3840-1620</t>
+  </si>
+  <si>
     <t>齋藤 たける</t>
   </si>
   <si>
+    <t>080-7521-3443</t>
+  </si>
+  <si>
     <t>鈴木 たかし</t>
   </si>
   <si>
+    <t>080-3598-8527</t>
+  </si>
+  <si>
     <t>清水 美結</t>
   </si>
   <si>
+    <t>080-6324-5321</t>
+  </si>
+  <si>
     <t>山崎 莉愛</t>
   </si>
   <si>
+    <t>080-6578-3478</t>
+  </si>
+  <si>
     <t>佐々野 陽葵</t>
   </si>
   <si>
+    <t>080-1238-6785</t>
+  </si>
+  <si>
     <t>小川 悠真</t>
   </si>
   <si>
+    <t>080-1892-5728</t>
+  </si>
+  <si>
     <t>佐藤 湊斗</t>
   </si>
   <si>
+    <t>080-5982-3452</t>
+  </si>
+  <si>
     <t>鈴木 樹</t>
   </si>
   <si>
+    <t>080-2139-4589</t>
+  </si>
+  <si>
     <t>高橋 陽翔</t>
   </si>
   <si>
+    <t>080-2398-6329</t>
+  </si>
+  <si>
     <t>中島 かおり</t>
   </si>
   <si>
+    <t>080-4583-8054</t>
+  </si>
+  <si>
     <t>加藤 たけし</t>
   </si>
   <si>
+    <t>080-9726-5818</t>
+  </si>
+  <si>
     <t>販売促進部</t>
   </si>
   <si>
@@ -404,85 +677,148 @@
     <t>中川 たくみ</t>
   </si>
   <si>
+    <t>080-6665-2820</t>
+  </si>
+  <si>
     <t>伊藤 あやか</t>
   </si>
   <si>
+    <t>080-3779-5335</t>
+  </si>
+  <si>
     <t xml:space="preserve">高橋 陽翔 </t>
   </si>
   <si>
+    <t>080-9052-8214</t>
+  </si>
+  <si>
     <t>高橋 あかね</t>
   </si>
   <si>
+    <t>080-4409-9993</t>
+  </si>
+  <si>
     <t>田中 あい</t>
   </si>
   <si>
+    <t>080-7385-7187</t>
+  </si>
+  <si>
     <t>鈴木 蓮</t>
   </si>
   <si>
+    <t>080-3321-9214</t>
+  </si>
+  <si>
     <t>佐藤 大翔</t>
   </si>
   <si>
+    <t>080-9132-1214</t>
+  </si>
+  <si>
     <t>田中 颯太</t>
   </si>
   <si>
+    <t>080-3392-1214</t>
+  </si>
+  <si>
     <t>小林 たかこ</t>
   </si>
   <si>
+    <t>080-8836-6834</t>
+  </si>
+  <si>
     <t>鈴木 かなえ</t>
   </si>
   <si>
+    <t>080-2108-1078</t>
+  </si>
+  <si>
     <t>山本 あいこ</t>
   </si>
   <si>
+    <t>080-5338-9684</t>
+  </si>
+  <si>
     <t>経営企画部</t>
   </si>
   <si>
     <t>渡辺 かなえ</t>
   </si>
   <si>
+    <t>080-8736-3705</t>
+  </si>
+  <si>
     <t>中村 里子</t>
   </si>
   <si>
     <t>小林 さやか</t>
   </si>
   <si>
+    <t>080-8387-9534</t>
+  </si>
+  <si>
     <t>渡辺 陽向</t>
   </si>
   <si>
+    <t>080-1257-6874</t>
+  </si>
+  <si>
     <t>伊藤 颯太</t>
   </si>
   <si>
+    <t>080-9783-2589</t>
+  </si>
+  <si>
     <t>山田 海翔</t>
   </si>
   <si>
+    <t>080-4578-2351</t>
+  </si>
+  <si>
     <t>中村 大翔</t>
   </si>
   <si>
+    <t>080-2528-7682</t>
+  </si>
+  <si>
     <t>小林 瑛斗</t>
   </si>
   <si>
+    <t>080-3522-5378</t>
+  </si>
+  <si>
     <t>加藤 葵</t>
   </si>
   <si>
+    <t>080-2374-4265</t>
+  </si>
+  <si>
     <t>田中 翔太</t>
   </si>
   <si>
+    <t>080-5239-4382</t>
+  </si>
+  <si>
     <t>加藤 あきこ</t>
   </si>
   <si>
+    <t>080-3508-5940</t>
+  </si>
+  <si>
     <t>吉田 さとみ</t>
   </si>
   <si>
+    <t>080-2951-3258</t>
+  </si>
+  <si>
     <t>中村 まゆみ</t>
   </si>
   <si>
-    <t>資材部</t>
+    <t>080-9316-7467</t>
   </si>
   <si>
     <t>高橋 直美</t>
-  </si>
-  <si>
-    <t>佐藤 みさと</t>
   </si>
 </sst>
 </file>
@@ -543,7 +879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:J134"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -594,7 +930,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2220002.0</v>
+        <v>3127532.0</v>
       </c>
       <c r="C2" t="s">
         <v>10</v>
@@ -606,3844 +942,4243 @@
         <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>2220005.0</v>
+        <v>9999999.0</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F3" t="n">
-        <v>22.0</v>
+        <v>26.0</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>2220006.0</v>
+        <v>2220002.0</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F4" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>2220007.0</v>
+        <v>2220005.0</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F5" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B6" t="n">
-        <v>2220008.0</v>
+        <v>2220006.0</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F6" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B7" t="n">
-        <v>2220009.0</v>
+        <v>2220007.0</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F7" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>2220010.0</v>
+        <v>2220008.0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F8" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B9" t="n">
-        <v>2220011.0</v>
+        <v>2220009.0</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F9" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
-        <v>2220012.0</v>
+        <v>2220010.0</v>
       </c>
       <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F10" t="n">
-        <v>22.0</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>13</v>
-      </c>
-      <c r="I10" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>2220013.0</v>
+        <v>2220011.0</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F11" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B12" t="n">
-        <v>2220014.0</v>
+        <v>2220012.0</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F12" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>2220015.0</v>
+        <v>2220013.0</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F13" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>2220016.0</v>
+        <v>2220014.0</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F14" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>2220017.0</v>
+        <v>2220015.0</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F15" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B16" t="n">
-        <v>2220018.0</v>
+        <v>2220016.0</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F16" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>2220019.0</v>
+        <v>2220017.0</v>
       </c>
       <c r="C17" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
         <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F17" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>2220022.0</v>
+        <v>2220018.0</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2220026.0</v>
+        <v>2220019.0</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D19" t="s">
         <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F19" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J19" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B20" t="n">
-        <v>2220501.0</v>
+        <v>2220022.0</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F20" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B21" t="n">
-        <v>2220502.0</v>
+        <v>2220026.0</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F21" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B22" t="n">
-        <v>2220503.0</v>
+        <v>2220501.0</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D22" t="s">
         <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F22" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B23" t="n">
-        <v>2220504.0</v>
+        <v>2220502.0</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F23" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J23" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B24" t="n">
-        <v>2220505.0</v>
+        <v>2220503.0</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F24" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B25" t="n">
-        <v>2950319.0</v>
+        <v>2220504.0</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F25" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B26" t="n">
-        <v>3905100.0</v>
+        <v>2220505.0</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F26" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B27" t="n">
-        <v>9999999.0</v>
+        <v>2950319.0</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F27" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J27" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="B28" t="n">
-        <v>1679245.0</v>
+        <v>3905100.0</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
         <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F28" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B29" t="n">
-        <v>2220392.0</v>
+        <v>1679245.0</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
         <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F29" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B30" t="n">
-        <v>2597431.0</v>
+        <v>2220392.0</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D30" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F30" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>3014524.0</v>
+        <v>2597431.0</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F31" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J31" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B32" t="n">
-        <v>4023956.0</v>
+        <v>3014524.0</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F32" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J32" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B33" t="n">
-        <v>6235129.0</v>
+        <v>4023956.0</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="D33" t="s">
         <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F33" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B34" t="n">
-        <v>7819465.0</v>
+        <v>6235129.0</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
         <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F34" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J34" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B35" t="n">
-        <v>8273519.0</v>
+        <v>7819465.0</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F35" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B36" t="n">
-        <v>9581340.0</v>
+        <v>8273519.0</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
         <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F36" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B37" t="n">
-        <v>1852952.0</v>
+        <v>9581340.0</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F37" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J37" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B38" t="n">
-        <v>2220243.0</v>
+        <v>1852952.0</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>73</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F38" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J38" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B39" t="n">
-        <v>2512827.0</v>
+        <v>2220243.0</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D39" t="s">
         <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F39" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B40" t="n">
-        <v>2512828.0</v>
+        <v>2512827.0</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>77</v>
       </c>
       <c r="D40" t="s">
         <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F40" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J40" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B41" t="n">
-        <v>2512829.0</v>
+        <v>2512828.0</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F41" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J41" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B42" t="n">
-        <v>2512830.0</v>
+        <v>2512829.0</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
       <c r="D42" t="s">
         <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F42" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J42" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B43" t="n">
-        <v>2512831.0</v>
+        <v>2512830.0</v>
       </c>
       <c r="C43" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="D43" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F43" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J43" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B44" t="n">
-        <v>2512832.0</v>
+        <v>2512831.0</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D44" t="s">
         <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F44" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J44" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B45" t="n">
-        <v>2512833.0</v>
+        <v>2512832.0</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="D45" t="s">
         <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F45" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J45" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B46" t="n">
-        <v>2512834.0</v>
+        <v>2512833.0</v>
       </c>
       <c r="C46" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E46" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F46" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B47" t="n">
-        <v>2512835.0</v>
+        <v>2512834.0</v>
       </c>
       <c r="C47" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D47" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E47" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F47" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J47" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B48" t="n">
-        <v>2512836.0</v>
+        <v>2512835.0</v>
       </c>
       <c r="C48" t="s">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F48" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J48" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B49" t="n">
-        <v>4937496.0</v>
+        <v>2512836.0</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
         <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F49" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J49" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B50" t="n">
-        <v>7125493.0</v>
+        <v>4937496.0</v>
       </c>
       <c r="C50" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
         <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F50" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J50" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="B51" t="n">
-        <v>8933125.0</v>
+        <v>7125493.0</v>
       </c>
       <c r="C51" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E51" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F51" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J51" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B52" t="n">
-        <v>1426258.0</v>
+        <v>8933125.0</v>
       </c>
       <c r="C52" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
         <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F52" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J52" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B53" t="n">
-        <v>1723912.0</v>
+        <v>1426258.0</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E53" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F53" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J53" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B54" t="n">
-        <v>2220638.0</v>
+        <v>1723912.0</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D54" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E54" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F54" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J54" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B55" t="n">
-        <v>2396343.0</v>
+        <v>2220638.0</v>
       </c>
       <c r="C55" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E55" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F55" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H55" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J55" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B56" t="n">
-        <v>5294719.0</v>
+        <v>2396343.0</v>
       </c>
       <c r="C56" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E56" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F56" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J56" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B57" t="n">
-        <v>6145537.0</v>
+        <v>5294719.0</v>
       </c>
       <c r="C57" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="D57" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E57" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F57" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J57" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B58" t="n">
-        <v>6145538.0</v>
+        <v>6145537.0</v>
       </c>
       <c r="C58" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
         <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F58" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J58" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B59" t="n">
-        <v>6145539.0</v>
+        <v>6145538.0</v>
       </c>
       <c r="C59" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E59" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F59" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H59" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J59" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B60" t="n">
-        <v>6732396.0</v>
+        <v>6145539.0</v>
       </c>
       <c r="C60" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="D60" t="s">
         <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F60" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J60" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B61" t="n">
-        <v>8463073.0</v>
+        <v>6732396.0</v>
       </c>
       <c r="C61" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="D61" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F61" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H61" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J61" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="B62" t="n">
-        <v>1487193.0</v>
+        <v>8463073.0</v>
       </c>
       <c r="C62" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="D62" t="s">
         <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F62" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H62" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J62" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="B63" t="n">
-        <v>1487194.0</v>
+        <v>1487193.0</v>
       </c>
       <c r="C63" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="D63" t="s">
         <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F63" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J63" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="B64" t="n">
-        <v>2220025.0</v>
+        <v>1487194.0</v>
       </c>
       <c r="C64" t="s">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="D64" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E64" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F64" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H64" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J64" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="B65" t="n">
-        <v>4254963.0</v>
+        <v>2220025.0</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="D65" t="s">
         <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F65" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H65" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J65" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="B66" t="n">
-        <v>7128462.0</v>
+        <v>4254963.0</v>
       </c>
       <c r="C66" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="D66" t="s">
         <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F66" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J66" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>77</v>
+        <v>124</v>
       </c>
       <c r="B67" t="n">
-        <v>2.030203E7</v>
+        <v>7128462.0</v>
       </c>
       <c r="C67" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="D67" t="s">
         <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F67" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H67" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J67" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>84</v>
+        <v>124</v>
       </c>
       <c r="B68" t="n">
-        <v>2220054.0</v>
+        <v>2.030203E7</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="D68" t="s">
         <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F68" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H68" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J68" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B69" t="n">
-        <v>2518626.0</v>
+        <v>2220054.0</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>138</v>
       </c>
       <c r="D69" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F69" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J69" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B70" t="n">
-        <v>2518627.0</v>
+        <v>2518626.0</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="D70" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E70" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F70" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J70" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B71" t="n">
-        <v>2518628.0</v>
+        <v>2518627.0</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="D71" t="s">
         <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F71" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H71" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J71" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B72" t="n">
-        <v>2518629.0</v>
+        <v>2518628.0</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="D72" t="s">
         <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F72" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H72" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J72" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B73" t="n">
-        <v>3014529.0</v>
+        <v>2518629.0</v>
       </c>
       <c r="C73" t="s">
-        <v>90</v>
+        <v>146</v>
       </c>
       <c r="D73" t="s">
         <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F73" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J73" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B74" t="n">
-        <v>3463072.0</v>
+        <v>3014529.0</v>
       </c>
       <c r="C74" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="D74" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F74" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H74" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J74" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B75" t="n">
-        <v>3905103.0</v>
+        <v>3463072.0</v>
       </c>
       <c r="C75" t="s">
-        <v>92</v>
+        <v>150</v>
       </c>
       <c r="D75" t="s">
         <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F75" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H75" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J75" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B76" t="n">
-        <v>6145529.0</v>
+        <v>3905103.0</v>
       </c>
       <c r="C76" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="D76" t="s">
         <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F76" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J76" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B77" t="n">
-        <v>6145530.0</v>
+        <v>6145529.0</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>154</v>
       </c>
       <c r="D77" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F77" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J77" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B78" t="n">
-        <v>6145531.0</v>
+        <v>6145530.0</v>
       </c>
       <c r="C78" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="D78" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F78" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J78" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B79" t="n">
-        <v>6145532.0</v>
+        <v>6145531.0</v>
       </c>
       <c r="C79" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="D79" t="s">
         <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F79" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H79" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J79" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B80" t="n">
-        <v>6145533.0</v>
+        <v>6145532.0</v>
       </c>
       <c r="C80" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="D80" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E80" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F80" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H80" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J80" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B81" t="n">
-        <v>6145534.0</v>
+        <v>6145533.0</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>162</v>
       </c>
       <c r="D81" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E81" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F81" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J81" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B82" t="n">
-        <v>6148723.0</v>
+        <v>6145534.0</v>
       </c>
       <c r="C82" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
       <c r="D82" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E82" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F82" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H82" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J82" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="B83" t="n">
-        <v>8312496.0</v>
+        <v>6148723.0</v>
       </c>
       <c r="C83" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="D83" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E83" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F83" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H83" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J83" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="B84" t="n">
-        <v>2220020.0</v>
+        <v>8312496.0</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="D84" t="s">
         <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F84" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J84" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B85" t="n">
-        <v>2597420.0</v>
+        <v>2220020.0</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="D85" t="s">
         <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F85" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H85" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J85" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B86" t="n">
-        <v>2950316.0</v>
+        <v>2597420.0</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="D86" t="s">
         <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F86" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H86" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J86" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B87" t="n">
-        <v>4937491.0</v>
+        <v>2950316.0</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>174</v>
       </c>
       <c r="D87" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E87" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F87" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J87" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B88" t="n">
-        <v>6145535.0</v>
+        <v>4937491.0</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>176</v>
       </c>
       <c r="D88" t="s">
         <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F88" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H88" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J88" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B89" t="n">
-        <v>6145536.0</v>
+        <v>6145535.0</v>
       </c>
       <c r="C89" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="D89" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E89" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F89" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H89" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J89" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B90" t="n">
-        <v>6732398.0</v>
+        <v>6145536.0</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>180</v>
       </c>
       <c r="D90" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E90" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F90" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J90" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B91" t="n">
-        <v>7128464.0</v>
+        <v>6732398.0</v>
       </c>
       <c r="C91" t="s">
-        <v>109</v>
+        <v>182</v>
       </c>
       <c r="D91" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E91" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F91" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H91" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J91" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="B92" t="n">
-        <v>8933122.0</v>
+        <v>7128464.0</v>
       </c>
       <c r="C92" t="s">
-        <v>110</v>
+        <v>184</v>
       </c>
       <c r="D92" t="s">
         <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F92" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H92" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J92" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="B93" t="n">
-        <v>1487123.0</v>
+        <v>8933122.0</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="D93" t="s">
         <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F93" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H93" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J93" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B94" t="n">
-        <v>2220021.0</v>
+        <v>1487123.0</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>189</v>
       </c>
       <c r="D94" t="s">
         <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F94" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J94" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B95" t="n">
-        <v>2397431.0</v>
+        <v>2220021.0</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="D95" t="s">
         <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F95" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J95" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B96" t="n">
-        <v>3044524.0</v>
+        <v>2397431.0</v>
       </c>
       <c r="C96" t="s">
-        <v>115</v>
+        <v>192</v>
       </c>
       <c r="D96" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E96" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F96" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J96" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B97" t="n">
-        <v>3905179.0</v>
+        <v>3044524.0</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>194</v>
       </c>
       <c r="D97" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E97" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F97" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H97" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J97" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B98" t="n">
-        <v>4237496.0</v>
+        <v>3905179.0</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>196</v>
       </c>
       <c r="D98" t="s">
         <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F98" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H98" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J98" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B99" t="n">
-        <v>6148724.0</v>
+        <v>4237496.0</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="D99" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E99" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F99" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J99" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B100" t="n">
-        <v>6148726.0</v>
+        <v>6148724.0</v>
       </c>
       <c r="C100" t="s">
-        <v>119</v>
+        <v>200</v>
       </c>
       <c r="D100" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E100" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F100" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J100" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B101" t="n">
-        <v>6148727.0</v>
+        <v>6148726.0</v>
       </c>
       <c r="C101" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="D101" t="s">
         <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F101" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H101" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I101" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J101" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B102" t="n">
-        <v>6148728.0</v>
+        <v>6148727.0</v>
       </c>
       <c r="C102" t="s">
-        <v>121</v>
+        <v>204</v>
       </c>
       <c r="D102" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F102" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J102" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B103" t="n">
-        <v>6148729.0</v>
+        <v>6148728.0</v>
       </c>
       <c r="C103" t="s">
-        <v>122</v>
+        <v>206</v>
       </c>
       <c r="D103" t="s">
         <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F103" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J103" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B104" t="n">
-        <v>6148739.0</v>
+        <v>6148729.0</v>
       </c>
       <c r="C104" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="D104" t="s">
         <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F104" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H104" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J104" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B105" t="n">
-        <v>6148740.0</v>
+        <v>6148739.0</v>
       </c>
       <c r="C105" t="s">
-        <v>124</v>
+        <v>210</v>
       </c>
       <c r="D105" t="s">
         <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F105" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J105" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B106" t="n">
-        <v>8423073.0</v>
+        <v>6148740.0</v>
       </c>
       <c r="C106" t="s">
-        <v>125</v>
+        <v>212</v>
       </c>
       <c r="D106" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E106" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F106" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H106" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J106" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>111</v>
+        <v>188</v>
       </c>
       <c r="B107" t="n">
-        <v>8923125.0</v>
+        <v>8423073.0</v>
       </c>
       <c r="C107" t="s">
-        <v>126</v>
+        <v>214</v>
       </c>
       <c r="D107" t="s">
         <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F107" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I107" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J107" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="B108" t="n">
-        <v>2220023.0</v>
+        <v>8923125.0</v>
       </c>
       <c r="C108" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="D108" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E108" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F108" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J108" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B109" t="n">
-        <v>2952319.0</v>
+        <v>2220023.0</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="D109" t="s">
         <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F109" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J109" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B110" t="n">
-        <v>3014523.0</v>
+        <v>2952319.0</v>
       </c>
       <c r="C110" t="s">
-        <v>130</v>
+        <v>220</v>
       </c>
       <c r="D110" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E110" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F110" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J110" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B111" t="n">
-        <v>3129688.0</v>
+        <v>3014523.0</v>
       </c>
       <c r="C111" t="s">
-        <v>131</v>
+        <v>222</v>
       </c>
       <c r="D111" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E111" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F111" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J111" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B112" t="n">
-        <v>3905099.0</v>
+        <v>3129688.0</v>
       </c>
       <c r="C112" t="s">
-        <v>132</v>
+        <v>224</v>
       </c>
       <c r="D112" t="s">
         <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F112" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J112" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B113" t="n">
-        <v>4937495.0</v>
+        <v>3905099.0</v>
       </c>
       <c r="C113" t="s">
-        <v>133</v>
+        <v>226</v>
       </c>
       <c r="D113" t="s">
         <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F113" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J113" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B114" t="n">
-        <v>5229138.0</v>
+        <v>4937495.0</v>
       </c>
       <c r="C114" t="s">
-        <v>134</v>
+        <v>228</v>
       </c>
       <c r="D114" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F114" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J114" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B115" t="n">
-        <v>5273138.0</v>
+        <v>5229138.0</v>
       </c>
       <c r="C115" t="s">
-        <v>135</v>
+        <v>230</v>
       </c>
       <c r="D115" t="s">
         <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F115" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J115" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B116" t="n">
-        <v>6145528.0</v>
+        <v>5273138.0</v>
       </c>
       <c r="C116" t="s">
-        <v>136</v>
+        <v>232</v>
       </c>
       <c r="D116" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F116" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I116" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J116" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B117" t="n">
-        <v>6731396.0</v>
+        <v>6145528.0</v>
       </c>
       <c r="C117" t="s">
-        <v>137</v>
+        <v>234</v>
       </c>
       <c r="D117" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F117" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H117" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I117" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J117" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B118" t="n">
-        <v>7328462.0</v>
+        <v>6731396.0</v>
       </c>
       <c r="C118" t="s">
-        <v>138</v>
+        <v>236</v>
       </c>
       <c r="D118" t="s">
         <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F118" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I118" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J118" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>127</v>
+        <v>218</v>
       </c>
       <c r="B119" t="n">
-        <v>8463072.0</v>
+        <v>7328462.0</v>
       </c>
       <c r="C119" t="s">
-        <v>139</v>
+        <v>238</v>
       </c>
       <c r="D119" t="s">
         <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F119" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H119" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J119" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="B120" t="n">
-        <v>1487192.0</v>
+        <v>8463072.0</v>
       </c>
       <c r="C120" t="s">
-        <v>141</v>
+        <v>240</v>
       </c>
       <c r="D120" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E120" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F120" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J120" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B121" t="n">
-        <v>2220003.0</v>
+        <v>1487192.0</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>243</v>
       </c>
       <c r="D121" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E121" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F121" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H121" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I121" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J121" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B122" t="n">
-        <v>2597430.0</v>
+        <v>2220003.0</v>
       </c>
       <c r="C122" t="s">
-        <v>143</v>
+        <v>245</v>
       </c>
       <c r="D122" t="s">
         <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F122" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I122" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J122" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B123" t="n">
-        <v>6148241.0</v>
+        <v>2597430.0</v>
       </c>
       <c r="C123" t="s">
-        <v>144</v>
+        <v>246</v>
       </c>
       <c r="D123" t="s">
         <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F123" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J123" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B124" t="n">
-        <v>6148242.0</v>
+        <v>6148241.0</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>248</v>
       </c>
       <c r="D124" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E124" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F124" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J124" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B125" t="n">
-        <v>6148243.0</v>
+        <v>6148242.0</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>250</v>
       </c>
       <c r="D125" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E125" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F125" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H125" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I125" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J125" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B126" t="n">
-        <v>6148244.0</v>
+        <v>6148243.0</v>
       </c>
       <c r="C126" t="s">
-        <v>147</v>
+        <v>252</v>
       </c>
       <c r="D126" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E126" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F126" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I126" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J126" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B127" t="n">
-        <v>6148245.0</v>
+        <v>6148244.0</v>
       </c>
       <c r="C127" t="s">
-        <v>148</v>
+        <v>254</v>
       </c>
       <c r="D127" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E127" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F127" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H127" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I127" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J127" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B128" t="n">
-        <v>6148246.0</v>
+        <v>6148245.0</v>
       </c>
       <c r="C128" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="D128" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E128" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F128" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I128" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J128" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B129" t="n">
-        <v>6148741.0</v>
+        <v>6148246.0</v>
       </c>
       <c r="C129" t="s">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="D129" t="s">
         <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F129" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J129" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B130" t="n">
-        <v>6732395.0</v>
+        <v>6148741.0</v>
       </c>
       <c r="C130" t="s">
-        <v>151</v>
+        <v>260</v>
       </c>
       <c r="D130" t="s">
         <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F130" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I130" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J130" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B131" t="n">
-        <v>7128461.0</v>
+        <v>6732395.0</v>
       </c>
       <c r="C131" t="s">
-        <v>152</v>
+        <v>262</v>
       </c>
       <c r="D131" t="s">
         <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F131" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I131" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J131" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>140</v>
+        <v>242</v>
       </c>
       <c r="B132" t="n">
-        <v>8933124.0</v>
+        <v>7128461.0</v>
       </c>
       <c r="C132" t="s">
-        <v>153</v>
+        <v>264</v>
       </c>
       <c r="D132" t="s">
         <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F132" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I132" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J132" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>154</v>
+        <v>242</v>
       </c>
       <c r="B133" t="n">
-        <v>2220004.0</v>
+        <v>8933124.0</v>
       </c>
       <c r="C133" t="s">
-        <v>155</v>
+        <v>266</v>
       </c>
       <c r="D133" t="s">
         <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F133" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I133" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J133" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>154</v>
+        <v>9</v>
       </c>
       <c r="B134" t="n">
-        <v>3127532.0</v>
+        <v>2220004.0</v>
       </c>
       <c r="C134" t="s">
-        <v>156</v>
+        <v>268</v>
       </c>
       <c r="D134" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="E134" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F134" t="n">
-        <v>22.0</v>
+        <v>0.0</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I134" t="s">
-        <v>14</v>
+        <v>25</v>
+      </c>
+      <c r="J134" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/firstProject/output.xlsx
+++ b/firstProject/output.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1073" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="275">
   <si>
     <t>authority</t>
   </si>
@@ -41,139 +41,748 @@
     <t>otherInfo</t>
   </si>
   <si>
+    <t>cellphone</t>
+  </si>
+  <si>
+    <t>総務部</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>安全</t>
+  </si>
+  <si>
+    <t>2023-07-28T15:32:24</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>tasukete!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>080-1111-2222</t>
+  </si>
+  <si>
+    <t>法務部</t>
+  </si>
+  <si>
+    <t>佐藤 正男</t>
+  </si>
+  <si>
+    <t>010-3723-1580</t>
+  </si>
+  <si>
+    <t>田中 太郎</t>
+  </si>
+  <si>
+    <t>010-7068-4108</t>
+  </si>
+  <si>
+    <t>木村 由美</t>
+  </si>
+  <si>
+    <t>010-4733-8924</t>
+  </si>
+  <si>
+    <t>人事部</t>
+  </si>
+  <si>
+    <t>加藤 恵</t>
+  </si>
+  <si>
+    <t>危険</t>
+  </si>
+  <si>
+    <t>080-5050-8225</t>
+  </si>
+  <si>
+    <t>経理部</t>
+  </si>
+  <si>
+    <t>佐々木 愛子</t>
+  </si>
+  <si>
+    <t>080-8660-9436</t>
+  </si>
+  <si>
+    <t>jjj</t>
+  </si>
+  <si>
+    <t>123-1234-1234</t>
+  </si>
+  <si>
+    <t>広報部</t>
+  </si>
+  <si>
+    <t>田村 香</t>
+  </si>
+  <si>
+    <t>080-6047-1716</t>
+  </si>
+  <si>
+    <t>choijongwon</t>
+  </si>
+  <si>
+    <t>010-2222-3333</t>
+  </si>
+  <si>
+    <t>開発部</t>
+  </si>
+  <si>
+    <t>加藤 一郎</t>
+  </si>
+  <si>
+    <t>010-7230-1466</t>
+  </si>
+  <si>
+    <t>財務部</t>
+  </si>
+  <si>
+    <t>鈴木 美咲</t>
+  </si>
+  <si>
+    <t>080-2987-9091</t>
+  </si>
+  <si>
+    <t>加藤 千明</t>
+  </si>
+  <si>
+    <t>080-4859-2361</t>
+  </si>
+  <si>
+    <t>経営戦略部</t>
+  </si>
+  <si>
+    <t>中島 かおり</t>
+  </si>
+  <si>
+    <t>080-4583-8054</t>
+  </si>
+  <si>
+    <t>加藤 たけし</t>
+  </si>
+  <si>
+    <t>080-9726-5818</t>
+  </si>
+  <si>
+    <t>販売促進部</t>
+  </si>
+  <si>
+    <t>鈴木 かなえ</t>
+  </si>
+  <si>
+    <t>080-2108-1078</t>
+  </si>
+  <si>
+    <t>山本 あいこ</t>
+  </si>
+  <si>
+    <t>080-5338-9684</t>
+  </si>
+  <si>
+    <t>経営企画部</t>
+  </si>
+  <si>
+    <t>中村 まゆみ</t>
+  </si>
+  <si>
+    <t>080-9316-7467</t>
+  </si>
+  <si>
+    <t>山本 花子</t>
+  </si>
+  <si>
+    <t>2023-07-28T15:32:23</t>
+  </si>
+  <si>
+    <t>010-7333-5344</t>
+  </si>
+  <si>
+    <t>鈴木 真理子</t>
+  </si>
+  <si>
+    <t>010-3435-9154</t>
+  </si>
+  <si>
+    <t>小林 愛</t>
+  </si>
+  <si>
+    <t>080-6090-1842</t>
+  </si>
+  <si>
+    <t>井上 優愛</t>
+  </si>
+  <si>
+    <t>080-3055-3684</t>
+  </si>
+  <si>
+    <t>小林 佳奈</t>
+  </si>
+  <si>
+    <t>080-1654-7065</t>
+  </si>
+  <si>
+    <t>清水 美結</t>
+  </si>
+  <si>
+    <t>080-6324-5321</t>
+  </si>
+  <si>
+    <t>山崎 莉愛</t>
+  </si>
+  <si>
+    <t>080-6578-3478</t>
+  </si>
+  <si>
+    <t>佐々野 陽葵</t>
+  </si>
+  <si>
+    <t>080-1238-6785</t>
+  </si>
+  <si>
+    <t>小川 悠真</t>
+  </si>
+  <si>
+    <t>080-1892-5728</t>
+  </si>
+  <si>
+    <t>佐藤 湊斗</t>
+  </si>
+  <si>
+    <t>080-5982-3452</t>
+  </si>
+  <si>
+    <t>鈴木 樹</t>
+  </si>
+  <si>
+    <t>080-2139-4589</t>
+  </si>
+  <si>
+    <t>高橋 陽翔</t>
+  </si>
+  <si>
+    <t>080-2398-6329</t>
+  </si>
+  <si>
+    <t>小林 たかこ</t>
+  </si>
+  <si>
+    <t>080-8836-6834</t>
+  </si>
+  <si>
+    <t>加藤 葵</t>
+  </si>
+  <si>
+    <t>080-2374-4265</t>
+  </si>
+  <si>
+    <t>田中 翔太</t>
+  </si>
+  <si>
+    <t>080-5239-4382</t>
+  </si>
+  <si>
+    <t>加藤 あきこ</t>
+  </si>
+  <si>
+    <t>080-3508-5940</t>
+  </si>
+  <si>
+    <t>吉田 さとみ</t>
+  </si>
+  <si>
+    <t>080-2951-3258</t>
+  </si>
+  <si>
+    <t>伊藤 美香</t>
+  </si>
+  <si>
+    <t>2023-07-28T15:32:22</t>
+  </si>
+  <si>
+    <t>010-2970-5228</t>
+  </si>
+  <si>
+    <t>林 結愛</t>
+  </si>
+  <si>
+    <t>080-4522-9923</t>
+  </si>
+  <si>
+    <t>山口 心愛</t>
+  </si>
+  <si>
+    <t>080-2416-1372</t>
+  </si>
+  <si>
+    <t>松本 美咲</t>
+  </si>
+  <si>
+    <t>080-8823-2831</t>
+  </si>
+  <si>
+    <t>渡辺 樹</t>
+  </si>
+  <si>
+    <t>080-2259-0195</t>
+  </si>
+  <si>
+    <t>伊藤 葵</t>
+  </si>
+  <si>
+    <t>080-5213-3021</t>
+  </si>
+  <si>
+    <t>山田 湊</t>
+  </si>
+  <si>
+    <t>080-8105-7723</t>
+  </si>
+  <si>
+    <t>中村 結菜</t>
+  </si>
+  <si>
+    <t>080-1205-3363</t>
+  </si>
+  <si>
+    <t>小林 美羽</t>
+  </si>
+  <si>
+    <t>080-0623-5592</t>
+  </si>
+  <si>
+    <t>加藤 莉子</t>
+  </si>
+  <si>
+    <t>080-6011-2317</t>
+  </si>
+  <si>
+    <t>佐々木 陽菜</t>
+  </si>
+  <si>
+    <t>080-7324-7325</t>
+  </si>
+  <si>
+    <t>木村 花音</t>
+  </si>
+  <si>
+    <t>080-7246-1247</t>
+  </si>
+  <si>
+    <t>田中 颯太</t>
+  </si>
+  <si>
+    <t>080-3392-1214</t>
+  </si>
+  <si>
+    <t>渡辺 陽向</t>
+  </si>
+  <si>
+    <t>080-1257-6874</t>
+  </si>
+  <si>
+    <t>伊藤 颯太</t>
+  </si>
+  <si>
+    <t>080-9783-2589</t>
+  </si>
+  <si>
+    <t>山田 海翔</t>
+  </si>
+  <si>
+    <t>080-4578-2351</t>
+  </si>
+  <si>
+    <t>中村 大翔</t>
+  </si>
+  <si>
+    <t>080-2528-7682</t>
+  </si>
+  <si>
+    <t>小林 瑛斗</t>
+  </si>
+  <si>
+    <t>080-3522-5378</t>
+  </si>
+  <si>
+    <t>渡辺 剛</t>
+  </si>
+  <si>
+    <t>2023-07-28T15:32:21</t>
+  </si>
+  <si>
+    <t>080-2201-8698</t>
+  </si>
+  <si>
+    <t>山田 大介</t>
+  </si>
+  <si>
+    <t>010-2422-2340</t>
+  </si>
+  <si>
+    <t>高橋 翔太</t>
+  </si>
+  <si>
+    <t>080-5898-8746</t>
+  </si>
+  <si>
+    <t>渡辺 明美</t>
+  </si>
+  <si>
+    <t>010-2643-7816</t>
+  </si>
+  <si>
+    <t>山田 博之</t>
+  </si>
+  <si>
+    <t>080-9527-8884</t>
+  </si>
+  <si>
+    <t>中島 俊介</t>
+  </si>
+  <si>
+    <t>080-5840-1549</t>
+  </si>
+  <si>
+    <t>齋藤 美智子</t>
+  </si>
+  <si>
+    <t>080-7223-3469</t>
+  </si>
+  <si>
+    <t>鈴木 由紀子</t>
+  </si>
+  <si>
+    <t>080-1465-6584</t>
+  </si>
+  <si>
+    <t>山田 ゆかり</t>
+  </si>
+  <si>
+    <t>080-3840-1620</t>
+  </si>
+  <si>
+    <t>齋藤 たける</t>
+  </si>
+  <si>
+    <t>080-7521-3443</t>
+  </si>
+  <si>
+    <t>鈴木 たかし</t>
+  </si>
+  <si>
+    <t>080-3598-8527</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高橋 陽翔 </t>
+  </si>
+  <si>
+    <t>080-9052-8214</t>
+  </si>
+  <si>
+    <t>高橋 あかね</t>
+  </si>
+  <si>
+    <t>080-4409-9993</t>
+  </si>
+  <si>
+    <t>田中 あい</t>
+  </si>
+  <si>
+    <t>080-7385-7187</t>
+  </si>
+  <si>
+    <t>鈴木 蓮</t>
+  </si>
+  <si>
+    <t>080-3321-9214</t>
+  </si>
+  <si>
+    <t>佐藤 大翔</t>
+  </si>
+  <si>
+    <t>080-9132-1214</t>
+  </si>
+  <si>
     <t>資材部</t>
   </si>
   <si>
     <t>佐藤 みさと</t>
   </si>
   <si>
-    <t>安全</t>
-  </si>
-  <si>
-    <t>2023-05-15T01:41:19</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>080-3012-5263</t>
   </si>
   <si>
-    <t>総務部</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>危険</t>
-  </si>
-  <si>
-    <t>2023-05-14T23:55:08</t>
-  </si>
-  <si>
-    <t>dd</t>
-  </si>
-  <si>
-    <t>080-1111-2222</t>
+    <t>testdesu</t>
+  </si>
+  <si>
+    <t>鈴木 匠</t>
+  </si>
+  <si>
+    <t>2023-07-28T15:32:20</t>
+  </si>
+  <si>
+    <t>080-7940-6173</t>
+  </si>
+  <si>
+    <t>中田 美穂</t>
+  </si>
+  <si>
+    <t>080-6976-9203</t>
+  </si>
+  <si>
+    <t>田中 結衣</t>
+  </si>
+  <si>
+    <t>080-7039-7955</t>
+  </si>
+  <si>
+    <t>松本 優愛</t>
+  </si>
+  <si>
+    <t>080-7325-2984</t>
+  </si>
+  <si>
+    <t>井上 美結</t>
+  </si>
+  <si>
+    <t>080-6592-9684</t>
+  </si>
+  <si>
+    <t>清水 莉愛</t>
+  </si>
+  <si>
+    <t>080-1902-4794</t>
+  </si>
+  <si>
+    <t>山崎 陽葵</t>
+  </si>
+  <si>
+    <t>080-2532-4382</t>
+  </si>
+  <si>
+    <t>佐々野 悠真</t>
+  </si>
+  <si>
+    <t>080-2352-7862</t>
+  </si>
+  <si>
+    <t>小川 湊斗</t>
+  </si>
+  <si>
+    <t>080-2503-1283</t>
+  </si>
+  <si>
+    <t>中村 瑛斗</t>
+  </si>
+  <si>
+    <t>080-6213-2473</t>
+  </si>
+  <si>
+    <t>小林 葵</t>
+  </si>
+  <si>
+    <t>080-4723-2123</t>
+  </si>
+  <si>
+    <t>片山 美結</t>
+  </si>
+  <si>
+    <t>080-2583-8924</t>
+  </si>
+  <si>
+    <t>岩田 和貴</t>
+  </si>
+  <si>
+    <t>080-7893-6892</t>
+  </si>
+  <si>
+    <t>田村 竜也</t>
+  </si>
+  <si>
+    <t>080-5230-9069</t>
+  </si>
+  <si>
+    <t>中川 大輔</t>
+  </si>
+  <si>
+    <t>080-2362-7614</t>
+  </si>
+  <si>
+    <t>中川 たくみ</t>
+  </si>
+  <si>
+    <t>080-6665-2820</t>
+  </si>
+  <si>
+    <t>伊藤 あやか</t>
+  </si>
+  <si>
+    <t>080-3779-5335</t>
+  </si>
+  <si>
+    <t>小林 さやか</t>
+  </si>
+  <si>
+    <t>080-8387-9534</t>
+  </si>
+  <si>
+    <t>加藤 まりな</t>
+  </si>
+  <si>
+    <t>2023-07-28T15:32:19</t>
+  </si>
+  <si>
+    <t>070-7439-8462</t>
+  </si>
+  <si>
+    <t>山田 さより</t>
+  </si>
+  <si>
+    <t>中村 はるか</t>
+  </si>
+  <si>
+    <t>小林 たかなり</t>
+  </si>
+  <si>
+    <t>加藤 ゆうじ</t>
+  </si>
+  <si>
+    <t>田村 りお</t>
+  </si>
+  <si>
+    <t>藤田　昇</t>
+  </si>
+  <si>
+    <t>070-2639-2053</t>
+  </si>
+  <si>
+    <t>中山 そら</t>
+  </si>
+  <si>
+    <t>070-0573-2743</t>
+  </si>
+  <si>
+    <t>佐々木 花音</t>
+  </si>
+  <si>
+    <t>080-7432-4125</t>
+  </si>
+  <si>
+    <t>木村 結愛</t>
+  </si>
+  <si>
+    <t>080-9823-5893</t>
+  </si>
+  <si>
+    <t>林 心愛</t>
+  </si>
+  <si>
+    <t>080-1928-8923</t>
+  </si>
+  <si>
+    <t>山口 美咲</t>
+  </si>
+  <si>
+    <t>080-2335-1522</t>
+  </si>
+  <si>
+    <t>伊藤 けいた</t>
+  </si>
+  <si>
+    <t>070-5823-1057</t>
+  </si>
+  <si>
+    <t>hyunjin</t>
+  </si>
+  <si>
+    <t>010-1234-1234</t>
+  </si>
+  <si>
+    <t>久乗 健太</t>
+  </si>
+  <si>
+    <t>070-5722-0285</t>
+  </si>
+  <si>
+    <t>藤原　秋</t>
+  </si>
+  <si>
+    <t>080-3122-9837</t>
+  </si>
+  <si>
+    <t>田村 めぐみ</t>
+  </si>
+  <si>
+    <t>080-7914-3115</t>
+  </si>
+  <si>
+    <t>佐々木 亜希子</t>
+  </si>
+  <si>
+    <t>川崎 光琉</t>
+  </si>
+  <si>
+    <t>2023-07-28T15:32:18</t>
+  </si>
+  <si>
+    <t>高田 まどか</t>
+  </si>
+  <si>
+    <t>山口 光太郎</t>
+  </si>
+  <si>
+    <t>渡辺 美咲</t>
+  </si>
+  <si>
+    <t>宮本 さくら</t>
+  </si>
+  <si>
+    <t>伊藤 美香子</t>
+  </si>
+  <si>
+    <t>渡部 大樹</t>
+  </si>
+  <si>
+    <t>森田 拓也</t>
+  </si>
+  <si>
+    <t>木村 大輔</t>
+  </si>
+  <si>
+    <t>高橋 未来</t>
+  </si>
+  <si>
+    <t>中島 拓海</t>
+  </si>
+  <si>
+    <t>斎藤 慎也</t>
+  </si>
+  <si>
+    <t>長谷川 結衣</t>
+  </si>
+  <si>
+    <t>小川 拓郎</t>
+  </si>
+  <si>
+    <t>崔　鐘元</t>
+  </si>
+  <si>
+    <t>高橋 真理子</t>
+  </si>
+  <si>
+    <t>田中 美優</t>
+  </si>
+  <si>
+    <t>山田 健太郎</t>
   </si>
   <si>
     <t>加藤 悠介</t>
   </si>
   <si>
-    <t>2023-05-14T23:16:29</t>
-  </si>
-  <si>
-    <t>tasukete!!!!!!!!!!!!!</t>
-  </si>
-  <si>
-    <t>川崎 光琉</t>
-  </si>
-  <si>
-    <t>高田 まどか</t>
-  </si>
-  <si>
-    <t>山口 光太郎</t>
-  </si>
-  <si>
-    <t>渡辺 美咲</t>
-  </si>
-  <si>
-    <t>宮本 さくら</t>
-  </si>
-  <si>
-    <t>伊藤 美香子</t>
-  </si>
-  <si>
-    <t>渡部 大樹</t>
-  </si>
-  <si>
-    <t>森田 拓也</t>
-  </si>
-  <si>
-    <t>木村 大輔</t>
-  </si>
-  <si>
-    <t>高橋 未来</t>
-  </si>
-  <si>
-    <t>中島 拓海</t>
-  </si>
-  <si>
-    <t>斎藤 慎也</t>
-  </si>
-  <si>
-    <t>長谷川 結衣</t>
-  </si>
-  <si>
-    <t>小川 拓郎</t>
-  </si>
-  <si>
-    <t>崔　鐘元</t>
-  </si>
-  <si>
-    <t>高橋 真理子</t>
-  </si>
-  <si>
-    <t>加藤 まりな</t>
-  </si>
-  <si>
-    <t>070-7439-8462</t>
-  </si>
-  <si>
-    <t>山田 さより</t>
-  </si>
-  <si>
-    <t>中村 はるか</t>
-  </si>
-  <si>
-    <t>小林 たかなり</t>
-  </si>
-  <si>
-    <t>加藤 ゆうじ</t>
-  </si>
-  <si>
-    <t>田村 りお</t>
-  </si>
-  <si>
-    <t>鈴木 匠</t>
-  </si>
-  <si>
-    <t>080-7940-6173</t>
-  </si>
-  <si>
-    <t>渡辺 剛</t>
-  </si>
-  <si>
-    <t>080-2201-8698</t>
-  </si>
-  <si>
-    <t>法務部</t>
+    <t>2023-07-28T15:32:17</t>
   </si>
   <si>
     <t>高橋 武</t>
@@ -182,150 +791,12 @@
     <t>010-7467-8874</t>
   </si>
   <si>
-    <t>藤田　昇</t>
-  </si>
-  <si>
-    <t>070-2639-2053</t>
-  </si>
-  <si>
-    <t>中田 美穂</t>
-  </si>
-  <si>
-    <t>080-6976-9203</t>
-  </si>
-  <si>
-    <t>田中 結衣</t>
-  </si>
-  <si>
-    <t>080-7039-7955</t>
-  </si>
-  <si>
-    <t>山田 大介</t>
-  </si>
-  <si>
-    <t>010-2422-2340</t>
-  </si>
-  <si>
-    <t>山本 花子</t>
-  </si>
-  <si>
-    <t>010-7333-5344</t>
-  </si>
-  <si>
-    <t>佐藤 正男</t>
-  </si>
-  <si>
-    <t>010-3723-1580</t>
-  </si>
-  <si>
-    <t>田中 太郎</t>
-  </si>
-  <si>
-    <t>010-7068-4108</t>
-  </si>
-  <si>
-    <t>木村 由美</t>
-  </si>
-  <si>
-    <t>010-4733-8924</t>
-  </si>
-  <si>
-    <t>人事部</t>
-  </si>
-  <si>
     <t>田中　ひろゆき</t>
   </si>
   <si>
     <t>080-3216-5772</t>
   </si>
   <si>
-    <t>中山 そら</t>
-  </si>
-  <si>
-    <t>070-0573-2743</t>
-  </si>
-  <si>
-    <t>佐々木 花音</t>
-  </si>
-  <si>
-    <t>080-7432-4125</t>
-  </si>
-  <si>
-    <t>木村 結愛</t>
-  </si>
-  <si>
-    <t>080-9823-5893</t>
-  </si>
-  <si>
-    <t>林 心愛</t>
-  </si>
-  <si>
-    <t>080-1928-8923</t>
-  </si>
-  <si>
-    <t>山口 美咲</t>
-  </si>
-  <si>
-    <t>080-2335-1522</t>
-  </si>
-  <si>
-    <t>松本 優愛</t>
-  </si>
-  <si>
-    <t>080-7325-2984</t>
-  </si>
-  <si>
-    <t>井上 美結</t>
-  </si>
-  <si>
-    <t>080-6592-9684</t>
-  </si>
-  <si>
-    <t>清水 莉愛</t>
-  </si>
-  <si>
-    <t>080-1902-4794</t>
-  </si>
-  <si>
-    <t>山崎 陽葵</t>
-  </si>
-  <si>
-    <t>080-2532-4382</t>
-  </si>
-  <si>
-    <t>佐々野 悠真</t>
-  </si>
-  <si>
-    <t>080-2352-7862</t>
-  </si>
-  <si>
-    <t>小川 湊斗</t>
-  </si>
-  <si>
-    <t>080-2503-1283</t>
-  </si>
-  <si>
-    <t>高橋 翔太</t>
-  </si>
-  <si>
-    <t>080-5898-8746</t>
-  </si>
-  <si>
-    <t>鈴木 真理子</t>
-  </si>
-  <si>
-    <t>010-3435-9154</t>
-  </si>
-  <si>
-    <t>加藤 恵</t>
-  </si>
-  <si>
-    <t>080-5050-8225</t>
-  </si>
-  <si>
-    <t>経理部</t>
-  </si>
-  <si>
     <t>吉田真由香</t>
   </si>
   <si>
@@ -338,57 +809,6 @@
     <t>080-2317-4132</t>
   </si>
   <si>
-    <t>伊藤 けいた</t>
-  </si>
-  <si>
-    <t>070-5823-1057</t>
-  </si>
-  <si>
-    <t>hyunjin</t>
-  </si>
-  <si>
-    <t>010-1234-1234</t>
-  </si>
-  <si>
-    <t>伊藤 美香</t>
-  </si>
-  <si>
-    <t>010-2970-5228</t>
-  </si>
-  <si>
-    <t>林 結愛</t>
-  </si>
-  <si>
-    <t>080-4522-9923</t>
-  </si>
-  <si>
-    <t>山口 心愛</t>
-  </si>
-  <si>
-    <t>080-2416-1372</t>
-  </si>
-  <si>
-    <t>松本 美咲</t>
-  </si>
-  <si>
-    <t>080-8823-2831</t>
-  </si>
-  <si>
-    <t>小林 愛</t>
-  </si>
-  <si>
-    <t>080-6090-1842</t>
-  </si>
-  <si>
-    <t>佐々木 愛子</t>
-  </si>
-  <si>
-    <t>080-8660-9436</t>
-  </si>
-  <si>
-    <t>広報部</t>
-  </si>
-  <si>
     <t>山口 沙耶</t>
   </si>
   <si>
@@ -401,348 +821,12 @@
     <t>080-3677-6978</t>
   </si>
   <si>
-    <t>久乗 健太</t>
-  </si>
-  <si>
-    <t>070-5722-0285</t>
-  </si>
-  <si>
-    <t>渡辺 明美</t>
-  </si>
-  <si>
-    <t>010-2643-7816</t>
-  </si>
-  <si>
-    <t>田村 香</t>
-  </si>
-  <si>
-    <t>080-6047-1716</t>
-  </si>
-  <si>
-    <t>choijongwon</t>
-  </si>
-  <si>
-    <t>010-2222-3333</t>
-  </si>
-  <si>
-    <t>開発部</t>
-  </si>
-  <si>
-    <t>藤原　秋</t>
-  </si>
-  <si>
-    <t>080-3122-9837</t>
-  </si>
-  <si>
-    <t>中村 瑛斗</t>
-  </si>
-  <si>
-    <t>080-6213-2473</t>
-  </si>
-  <si>
-    <t>小林 葵</t>
-  </si>
-  <si>
-    <t>080-4723-2123</t>
-  </si>
-  <si>
-    <t>片山 美結</t>
-  </si>
-  <si>
-    <t>080-2583-8924</t>
-  </si>
-  <si>
-    <t>岩田 和貴</t>
-  </si>
-  <si>
-    <t>080-7893-6892</t>
-  </si>
-  <si>
-    <t>山田 博之</t>
-  </si>
-  <si>
-    <t>080-9527-8884</t>
-  </si>
-  <si>
-    <t>中島 俊介</t>
-  </si>
-  <si>
-    <t>080-5840-1549</t>
-  </si>
-  <si>
-    <t>齋藤 美智子</t>
-  </si>
-  <si>
-    <t>080-7223-3469</t>
-  </si>
-  <si>
-    <t>渡辺 樹</t>
-  </si>
-  <si>
-    <t>080-2259-0195</t>
-  </si>
-  <si>
-    <t>伊藤 葵</t>
-  </si>
-  <si>
-    <t>080-5213-3021</t>
-  </si>
-  <si>
-    <t>山田 湊</t>
-  </si>
-  <si>
-    <t>080-8105-7723</t>
-  </si>
-  <si>
-    <t>中村 結菜</t>
-  </si>
-  <si>
-    <t>080-1205-3363</t>
-  </si>
-  <si>
-    <t>小林 美羽</t>
-  </si>
-  <si>
-    <t>080-0623-5592</t>
-  </si>
-  <si>
-    <t>加藤 莉子</t>
-  </si>
-  <si>
-    <t>080-6011-2317</t>
-  </si>
-  <si>
-    <t>井上 優愛</t>
-  </si>
-  <si>
-    <t>080-3055-3684</t>
-  </si>
-  <si>
-    <t>加藤 一郎</t>
-  </si>
-  <si>
-    <t>010-7230-1466</t>
-  </si>
-  <si>
-    <t>財務部</t>
-  </si>
-  <si>
-    <t>田中 美優</t>
-  </si>
-  <si>
-    <t>田村 竜也</t>
-  </si>
-  <si>
-    <t>080-5230-9069</t>
-  </si>
-  <si>
-    <t>中川 大輔</t>
-  </si>
-  <si>
-    <t>080-2362-7614</t>
-  </si>
-  <si>
-    <t>鈴木 由紀子</t>
-  </si>
-  <si>
-    <t>080-1465-6584</t>
-  </si>
-  <si>
-    <t>佐々木 陽菜</t>
-  </si>
-  <si>
-    <t>080-7324-7325</t>
-  </si>
-  <si>
-    <t>木村 花音</t>
-  </si>
-  <si>
-    <t>080-7246-1247</t>
-  </si>
-  <si>
-    <t>小林 佳奈</t>
-  </si>
-  <si>
-    <t>080-1654-7065</t>
-  </si>
-  <si>
-    <t>鈴木 美咲</t>
-  </si>
-  <si>
-    <t>080-2987-9091</t>
-  </si>
-  <si>
-    <t>加藤 千明</t>
-  </si>
-  <si>
-    <t>080-4859-2361</t>
-  </si>
-  <si>
-    <t>経営戦略部</t>
-  </si>
-  <si>
     <t>松本 さやか</t>
   </si>
   <si>
     <t>080-2653-1937</t>
   </si>
   <si>
-    <t>山田 健太郎</t>
-  </si>
-  <si>
-    <t>田村 めぐみ</t>
-  </si>
-  <si>
-    <t>080-7914-3115</t>
-  </si>
-  <si>
-    <t>山田 ゆかり</t>
-  </si>
-  <si>
-    <t>080-3840-1620</t>
-  </si>
-  <si>
-    <t>齋藤 たける</t>
-  </si>
-  <si>
-    <t>080-7521-3443</t>
-  </si>
-  <si>
-    <t>鈴木 たかし</t>
-  </si>
-  <si>
-    <t>080-3598-8527</t>
-  </si>
-  <si>
-    <t>清水 美結</t>
-  </si>
-  <si>
-    <t>080-6324-5321</t>
-  </si>
-  <si>
-    <t>山崎 莉愛</t>
-  </si>
-  <si>
-    <t>080-6578-3478</t>
-  </si>
-  <si>
-    <t>佐々野 陽葵</t>
-  </si>
-  <si>
-    <t>080-1238-6785</t>
-  </si>
-  <si>
-    <t>小川 悠真</t>
-  </si>
-  <si>
-    <t>080-1892-5728</t>
-  </si>
-  <si>
-    <t>佐藤 湊斗</t>
-  </si>
-  <si>
-    <t>080-5982-3452</t>
-  </si>
-  <si>
-    <t>鈴木 樹</t>
-  </si>
-  <si>
-    <t>080-2139-4589</t>
-  </si>
-  <si>
-    <t>高橋 陽翔</t>
-  </si>
-  <si>
-    <t>080-2398-6329</t>
-  </si>
-  <si>
-    <t>中島 かおり</t>
-  </si>
-  <si>
-    <t>080-4583-8054</t>
-  </si>
-  <si>
-    <t>加藤 たけし</t>
-  </si>
-  <si>
-    <t>080-9726-5818</t>
-  </si>
-  <si>
-    <t>販売促進部</t>
-  </si>
-  <si>
-    <t>佐々木 亜希子</t>
-  </si>
-  <si>
-    <t>中川 たくみ</t>
-  </si>
-  <si>
-    <t>080-6665-2820</t>
-  </si>
-  <si>
-    <t>伊藤 あやか</t>
-  </si>
-  <si>
-    <t>080-3779-5335</t>
-  </si>
-  <si>
-    <t xml:space="preserve">高橋 陽翔 </t>
-  </si>
-  <si>
-    <t>080-9052-8214</t>
-  </si>
-  <si>
-    <t>高橋 あかね</t>
-  </si>
-  <si>
-    <t>080-4409-9993</t>
-  </si>
-  <si>
-    <t>田中 あい</t>
-  </si>
-  <si>
-    <t>080-7385-7187</t>
-  </si>
-  <si>
-    <t>鈴木 蓮</t>
-  </si>
-  <si>
-    <t>080-3321-9214</t>
-  </si>
-  <si>
-    <t>佐藤 大翔</t>
-  </si>
-  <si>
-    <t>080-9132-1214</t>
-  </si>
-  <si>
-    <t>田中 颯太</t>
-  </si>
-  <si>
-    <t>080-3392-1214</t>
-  </si>
-  <si>
-    <t>小林 たかこ</t>
-  </si>
-  <si>
-    <t>080-8836-6834</t>
-  </si>
-  <si>
-    <t>鈴木 かなえ</t>
-  </si>
-  <si>
-    <t>080-2108-1078</t>
-  </si>
-  <si>
-    <t>山本 あいこ</t>
-  </si>
-  <si>
-    <t>080-5338-9684</t>
-  </si>
-  <si>
-    <t>経営企画部</t>
-  </si>
-  <si>
     <t>渡辺 かなえ</t>
   </si>
   <si>
@@ -750,72 +834,6 @@
   </si>
   <si>
     <t>中村 里子</t>
-  </si>
-  <si>
-    <t>小林 さやか</t>
-  </si>
-  <si>
-    <t>080-8387-9534</t>
-  </si>
-  <si>
-    <t>渡辺 陽向</t>
-  </si>
-  <si>
-    <t>080-1257-6874</t>
-  </si>
-  <si>
-    <t>伊藤 颯太</t>
-  </si>
-  <si>
-    <t>080-9783-2589</t>
-  </si>
-  <si>
-    <t>山田 海翔</t>
-  </si>
-  <si>
-    <t>080-4578-2351</t>
-  </si>
-  <si>
-    <t>中村 大翔</t>
-  </si>
-  <si>
-    <t>080-2528-7682</t>
-  </si>
-  <si>
-    <t>小林 瑛斗</t>
-  </si>
-  <si>
-    <t>080-3522-5378</t>
-  </si>
-  <si>
-    <t>加藤 葵</t>
-  </si>
-  <si>
-    <t>080-2374-4265</t>
-  </si>
-  <si>
-    <t>田中 翔太</t>
-  </si>
-  <si>
-    <t>080-5239-4382</t>
-  </si>
-  <si>
-    <t>加藤 あきこ</t>
-  </si>
-  <si>
-    <t>080-3508-5940</t>
-  </si>
-  <si>
-    <t>吉田 さとみ</t>
-  </si>
-  <si>
-    <t>080-2951-3258</t>
-  </si>
-  <si>
-    <t>中村 まゆみ</t>
-  </si>
-  <si>
-    <t>080-9316-7467</t>
   </si>
   <si>
     <t>高橋 直美</t>
@@ -879,7 +897,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -894,6 +912,7 @@
     <col min="7" max="7" width="6.11328125" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="5.40234375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="16.15625" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="15.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -924,28 +943,31 @@
       <c r="I1" t="s" s="1">
         <v>8</v>
       </c>
+      <c r="J1" t="s" s="1">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="n">
-        <v>3127532.0</v>
+        <v>9999999.0</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" t="n">
-        <v>26.0</v>
+        <v>0.0</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
         <v>14</v>
@@ -962,31 +984,31 @@
         <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>9999999.0</v>
+        <v>7819465.0</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4">
@@ -994,16 +1016,16 @@
         <v>17</v>
       </c>
       <c r="B4" t="n">
-        <v>2220002.0</v>
+        <v>8273519.0</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F4" t="n">
         <v>0.0</v>
@@ -1015,10 +1037,10 @@
         <v>14</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -1026,16 +1048,16 @@
         <v>17</v>
       </c>
       <c r="B5" t="n">
-        <v>2220005.0</v>
+        <v>9581340.0</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F5" t="n">
         <v>0.0</v>
@@ -1047,59 +1069,59 @@
         <v>14</v>
       </c>
       <c r="I5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B6" t="n">
-        <v>2220006.0</v>
+        <v>8933125.0</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" t="s">
         <v>27</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B7" t="n">
-        <v>2220007.0</v>
+        <v>8463073.0</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F7" t="n">
         <v>0.0</v>
@@ -1111,27 +1133,27 @@
         <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B8" t="n">
-        <v>2220008.0</v>
+        <v>1.2341234E7</v>
       </c>
       <c r="C8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F8" t="n">
         <v>0.0</v>
@@ -1143,27 +1165,27 @@
         <v>14</v>
       </c>
       <c r="I8" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B9" t="n">
-        <v>2220009.0</v>
+        <v>7128462.0</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F9" t="n">
         <v>0.0</v>
@@ -1175,27 +1197,27 @@
         <v>14</v>
       </c>
       <c r="I9" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B10" t="n">
-        <v>2220010.0</v>
+        <v>2.030203E7</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F10" t="n">
         <v>0.0</v>
@@ -1207,27 +1229,27 @@
         <v>14</v>
       </c>
       <c r="I10" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B11" t="n">
-        <v>2220011.0</v>
+        <v>8312496.0</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F11" t="n">
         <v>0.0</v>
@@ -1239,27 +1261,27 @@
         <v>14</v>
       </c>
       <c r="I11" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B12" t="n">
-        <v>2220012.0</v>
+        <v>7128464.0</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F12" t="n">
         <v>0.0</v>
@@ -1271,27 +1293,27 @@
         <v>14</v>
       </c>
       <c r="I12" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B13" t="n">
-        <v>2220013.0</v>
+        <v>8933122.0</v>
       </c>
       <c r="C13" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F13" t="n">
         <v>0.0</v>
@@ -1303,27 +1325,27 @@
         <v>14</v>
       </c>
       <c r="I13" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B14" t="n">
-        <v>2220014.0</v>
+        <v>8423073.0</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F14" t="n">
         <v>0.0</v>
@@ -1335,27 +1357,27 @@
         <v>14</v>
       </c>
       <c r="I14" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B15" t="n">
-        <v>2220015.0</v>
+        <v>8923125.0</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F15" t="n">
         <v>0.0</v>
@@ -1367,27 +1389,27 @@
         <v>14</v>
       </c>
       <c r="I15" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B16" t="n">
-        <v>2220016.0</v>
+        <v>7328462.0</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F16" t="n">
         <v>0.0</v>
@@ -1399,27 +1421,27 @@
         <v>14</v>
       </c>
       <c r="I16" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="B17" t="n">
-        <v>2220017.0</v>
+        <v>8463072.0</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F17" t="n">
         <v>0.0</v>
@@ -1431,27 +1453,27 @@
         <v>14</v>
       </c>
       <c r="I17" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B18" t="n">
-        <v>2220018.0</v>
+        <v>8933124.0</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="F18" t="n">
         <v>0.0</v>
@@ -1463,10 +1485,10 @@
         <v>14</v>
       </c>
       <c r="I18" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19">
@@ -1474,16 +1496,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2220019.0</v>
+        <v>6235129.0</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F19" t="n">
         <v>0.0</v>
@@ -1495,27 +1517,27 @@
         <v>14</v>
       </c>
       <c r="I19" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="B20" t="n">
-        <v>2220022.0</v>
+        <v>7125493.0</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F20" t="n">
         <v>0.0</v>
@@ -1527,27 +1549,27 @@
         <v>14</v>
       </c>
       <c r="I20" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="B21" t="n">
-        <v>2220026.0</v>
+        <v>6732396.0</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F21" t="n">
         <v>0.0</v>
@@ -1559,27 +1581,27 @@
         <v>14</v>
       </c>
       <c r="I21" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="B22" t="n">
-        <v>2220501.0</v>
+        <v>6148723.0</v>
       </c>
       <c r="C22" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F22" t="n">
         <v>0.0</v>
@@ -1591,27 +1613,27 @@
         <v>14</v>
       </c>
       <c r="I22" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B23" t="n">
-        <v>2220502.0</v>
+        <v>6732398.0</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F23" t="n">
         <v>0.0</v>
@@ -1623,27 +1645,27 @@
         <v>14</v>
       </c>
       <c r="I23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B24" t="n">
-        <v>2220503.0</v>
+        <v>6148724.0</v>
       </c>
       <c r="C24" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F24" t="n">
         <v>0.0</v>
@@ -1655,27 +1677,27 @@
         <v>14</v>
       </c>
       <c r="I24" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B25" t="n">
-        <v>2220504.0</v>
+        <v>6148726.0</v>
       </c>
       <c r="C25" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F25" t="n">
         <v>0.0</v>
@@ -1687,27 +1709,27 @@
         <v>14</v>
       </c>
       <c r="I25" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B26" t="n">
-        <v>2220505.0</v>
+        <v>6148727.0</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F26" t="n">
         <v>0.0</v>
@@ -1719,27 +1741,27 @@
         <v>14</v>
       </c>
       <c r="I26" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B27" t="n">
-        <v>2950319.0</v>
+        <v>6148728.0</v>
       </c>
       <c r="C27" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="D27" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F27" t="n">
         <v>0.0</v>
@@ -1751,27 +1773,27 @@
         <v>14</v>
       </c>
       <c r="I27" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B28" t="n">
-        <v>3905100.0</v>
+        <v>6148729.0</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F28" t="n">
         <v>0.0</v>
@@ -1783,27 +1805,27 @@
         <v>14</v>
       </c>
       <c r="I28" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B29" t="n">
-        <v>1679245.0</v>
+        <v>6148739.0</v>
       </c>
       <c r="C29" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F29" t="n">
         <v>0.0</v>
@@ -1815,27 +1837,27 @@
         <v>14</v>
       </c>
       <c r="I29" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B30" t="n">
-        <v>2220392.0</v>
+        <v>6148740.0</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F30" t="n">
         <v>0.0</v>
@@ -1847,27 +1869,27 @@
         <v>14</v>
       </c>
       <c r="I30" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B31" t="n">
-        <v>2597431.0</v>
+        <v>6731396.0</v>
       </c>
       <c r="C31" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F31" t="n">
         <v>0.0</v>
@@ -1879,28 +1901,28 @@
         <v>14</v>
       </c>
       <c r="I31" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>59</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B32" t="n">
-        <v>3014524.0</v>
+        <v>6148246.0</v>
       </c>
       <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>12</v>
+      </c>
+      <c r="E32" t="s">
         <v>60</v>
       </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-      <c r="E32" t="s">
-        <v>24</v>
-      </c>
       <c r="F32" t="n">
         <v>0.0</v>
       </c>
@@ -1911,27 +1933,27 @@
         <v>14</v>
       </c>
       <c r="I32" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B33" t="n">
-        <v>4023956.0</v>
+        <v>6148741.0</v>
       </c>
       <c r="C33" t="s">
-        <v>62</v>
+        <v>88</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F33" t="n">
         <v>0.0</v>
@@ -1943,27 +1965,27 @@
         <v>14</v>
       </c>
       <c r="I33" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B34" t="n">
-        <v>6235129.0</v>
+        <v>6732395.0</v>
       </c>
       <c r="C34" t="s">
-        <v>64</v>
+        <v>90</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E34" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F34" t="n">
         <v>0.0</v>
@@ -1975,27 +1997,27 @@
         <v>14</v>
       </c>
       <c r="I34" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J34" t="s">
-        <v>65</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B35" t="n">
-        <v>7819465.0</v>
+        <v>7128461.0</v>
       </c>
       <c r="C35" t="s">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="D35" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="F35" t="n">
         <v>0.0</v>
@@ -2007,27 +2029,27 @@
         <v>14</v>
       </c>
       <c r="I35" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J35" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B36" t="n">
-        <v>8273519.0</v>
+        <v>5294719.0</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F36" t="n">
         <v>0.0</v>
@@ -2039,27 +2061,27 @@
         <v>14</v>
       </c>
       <c r="I36" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B37" t="n">
-        <v>9581340.0</v>
+        <v>6145537.0</v>
       </c>
       <c r="C37" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F37" t="n">
         <v>0.0</v>
@@ -2071,27 +2093,27 @@
         <v>14</v>
       </c>
       <c r="I37" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J37" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B38" t="n">
-        <v>1852952.0</v>
+        <v>6145538.0</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="D38" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F38" t="n">
         <v>0.0</v>
@@ -2103,27 +2125,27 @@
         <v>14</v>
       </c>
       <c r="I38" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J38" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
       <c r="B39" t="n">
-        <v>2220243.0</v>
+        <v>6145539.0</v>
       </c>
       <c r="C39" t="s">
-        <v>75</v>
+        <v>101</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F39" t="n">
         <v>0.0</v>
@@ -2135,27 +2157,27 @@
         <v>14</v>
       </c>
       <c r="I39" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J39" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2512827.0</v>
+        <v>6145529.0</v>
       </c>
       <c r="C40" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="D40" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F40" t="n">
         <v>0.0</v>
@@ -2167,27 +2189,27 @@
         <v>14</v>
       </c>
       <c r="I40" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J40" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B41" t="n">
-        <v>2512828.0</v>
+        <v>6145530.0</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="D41" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F41" t="n">
         <v>0.0</v>
@@ -2199,27 +2221,27 @@
         <v>14</v>
       </c>
       <c r="I41" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J41" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B42" t="n">
-        <v>2512829.0</v>
+        <v>6145531.0</v>
       </c>
       <c r="C42" t="s">
-        <v>81</v>
+        <v>107</v>
       </c>
       <c r="D42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F42" t="n">
         <v>0.0</v>
@@ -2231,27 +2253,27 @@
         <v>14</v>
       </c>
       <c r="I42" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J42" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B43" t="n">
-        <v>2512830.0</v>
+        <v>6145532.0</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="D43" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F43" t="n">
         <v>0.0</v>
@@ -2263,27 +2285,27 @@
         <v>14</v>
       </c>
       <c r="I43" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J43" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B44" t="n">
-        <v>2512831.0</v>
+        <v>6145533.0</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E44" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F44" t="n">
         <v>0.0</v>
@@ -2295,27 +2317,27 @@
         <v>14</v>
       </c>
       <c r="I44" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J44" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="B45" t="n">
-        <v>2512832.0</v>
+        <v>6145534.0</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F45" t="n">
         <v>0.0</v>
@@ -2327,27 +2349,27 @@
         <v>14</v>
       </c>
       <c r="I45" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J45" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B46" t="n">
-        <v>2512833.0</v>
+        <v>6145535.0</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="D46" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F46" t="n">
         <v>0.0</v>
@@ -2359,27 +2381,27 @@
         <v>14</v>
       </c>
       <c r="I46" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J46" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="B47" t="n">
-        <v>2512834.0</v>
+        <v>6145536.0</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>117</v>
       </c>
       <c r="D47" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F47" t="n">
         <v>0.0</v>
@@ -2391,27 +2413,27 @@
         <v>14</v>
       </c>
       <c r="I47" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J47" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="B48" t="n">
-        <v>2512835.0</v>
+        <v>6145528.0</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>119</v>
       </c>
       <c r="D48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F48" t="n">
         <v>0.0</v>
@@ -2423,28 +2445,28 @@
         <v>14</v>
       </c>
       <c r="I48" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J48" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B49" t="n">
-        <v>2512836.0</v>
+        <v>6148241.0</v>
       </c>
       <c r="C49" t="s">
+        <v>121</v>
+      </c>
+      <c r="D49" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" t="s">
         <v>95</v>
       </c>
-      <c r="D49" t="s">
-        <v>11</v>
-      </c>
-      <c r="E49" t="s">
-        <v>24</v>
-      </c>
       <c r="F49" t="n">
         <v>0.0</v>
       </c>
@@ -2455,27 +2477,27 @@
         <v>14</v>
       </c>
       <c r="I49" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J49" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>4937496.0</v>
+        <v>6148242.0</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>123</v>
       </c>
       <c r="D50" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E50" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F50" t="n">
         <v>0.0</v>
@@ -2487,27 +2509,27 @@
         <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J50" t="s">
-        <v>98</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B51" t="n">
-        <v>7125493.0</v>
+        <v>6148243.0</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>125</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F51" t="n">
         <v>0.0</v>
@@ -2519,27 +2541,27 @@
         <v>14</v>
       </c>
       <c r="I51" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J51" t="s">
-        <v>100</v>
+        <v>126</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B52" t="n">
-        <v>8933125.0</v>
+        <v>6148244.0</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>127</v>
       </c>
       <c r="D52" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E52" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F52" t="n">
         <v>0.0</v>
@@ -2551,27 +2573,27 @@
         <v>14</v>
       </c>
       <c r="I52" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J52" t="s">
-        <v>102</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="B53" t="n">
-        <v>1426258.0</v>
+        <v>6148245.0</v>
       </c>
       <c r="C53" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="D53" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E53" t="s">
-        <v>24</v>
+        <v>95</v>
       </c>
       <c r="F53" t="n">
         <v>0.0</v>
@@ -2583,27 +2605,27 @@
         <v>14</v>
       </c>
       <c r="I53" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J53" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="B54" t="n">
-        <v>1723912.0</v>
+        <v>3905100.0</v>
       </c>
       <c r="C54" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="D54" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E54" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F54" t="n">
         <v>0.0</v>
@@ -2615,27 +2637,27 @@
         <v>14</v>
       </c>
       <c r="I54" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J54" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="B55" t="n">
-        <v>2220638.0</v>
+        <v>4023956.0</v>
       </c>
       <c r="C55" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="D55" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F55" t="n">
         <v>0.0</v>
@@ -2647,27 +2669,27 @@
         <v>14</v>
       </c>
       <c r="I55" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J55" t="s">
-        <v>109</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>103</v>
+        <v>24</v>
       </c>
       <c r="B56" t="n">
-        <v>2396343.0</v>
+        <v>4937496.0</v>
       </c>
       <c r="C56" t="s">
-        <v>110</v>
+        <v>136</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F56" t="n">
         <v>0.0</v>
@@ -2679,27 +2701,27 @@
         <v>14</v>
       </c>
       <c r="I56" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J56" t="s">
-        <v>111</v>
+        <v>137</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>103</v>
+        <v>33</v>
       </c>
       <c r="B57" t="n">
-        <v>5294719.0</v>
+        <v>4254963.0</v>
       </c>
       <c r="C57" t="s">
-        <v>112</v>
+        <v>138</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E57" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F57" t="n">
         <v>0.0</v>
@@ -2711,27 +2733,27 @@
         <v>14</v>
       </c>
       <c r="I57" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J57" t="s">
-        <v>113</v>
+        <v>139</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B58" t="n">
-        <v>6145537.0</v>
+        <v>3014529.0</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E58" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F58" t="n">
         <v>0.0</v>
@@ -2743,27 +2765,27 @@
         <v>14</v>
       </c>
       <c r="I58" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J58" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B59" t="n">
-        <v>6145538.0</v>
+        <v>3463072.0</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="D59" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E59" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F59" t="n">
         <v>0.0</v>
@@ -2775,27 +2797,27 @@
         <v>14</v>
       </c>
       <c r="I59" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J59" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="B60" t="n">
-        <v>6145539.0</v>
+        <v>3905103.0</v>
       </c>
       <c r="C60" t="s">
-        <v>118</v>
+        <v>144</v>
       </c>
       <c r="D60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E60" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F60" t="n">
         <v>0.0</v>
@@ -2807,27 +2829,27 @@
         <v>14</v>
       </c>
       <c r="I60" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J60" t="s">
-        <v>119</v>
+        <v>145</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>41</v>
       </c>
       <c r="B61" t="n">
-        <v>6732396.0</v>
+        <v>4937491.0</v>
       </c>
       <c r="C61" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E61" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F61" t="n">
         <v>0.0</v>
@@ -2839,27 +2861,27 @@
         <v>14</v>
       </c>
       <c r="I61" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J61" t="s">
-        <v>121</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
       <c r="B62" t="n">
-        <v>8463073.0</v>
+        <v>3044524.0</v>
       </c>
       <c r="C62" t="s">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E62" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F62" t="n">
         <v>0.0</v>
@@ -2871,27 +2893,27 @@
         <v>14</v>
       </c>
       <c r="I62" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J62" t="s">
-        <v>123</v>
+        <v>149</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="B63" t="n">
-        <v>1487193.0</v>
+        <v>3905179.0</v>
       </c>
       <c r="C63" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="D63" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E63" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F63" t="n">
         <v>0.0</v>
@@ -2903,27 +2925,27 @@
         <v>14</v>
       </c>
       <c r="I63" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J63" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="B64" t="n">
-        <v>1487194.0</v>
+        <v>4237496.0</v>
       </c>
       <c r="C64" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="D64" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E64" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F64" t="n">
         <v>0.0</v>
@@ -2935,27 +2957,27 @@
         <v>14</v>
       </c>
       <c r="I64" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J64" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B65" t="n">
-        <v>2220025.0</v>
+        <v>3129688.0</v>
       </c>
       <c r="C65" t="s">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="D65" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E65" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F65" t="n">
         <v>0.0</v>
@@ -2967,27 +2989,27 @@
         <v>14</v>
       </c>
       <c r="I65" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J65" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B66" t="n">
-        <v>4254963.0</v>
+        <v>3905099.0</v>
       </c>
       <c r="C66" t="s">
-        <v>131</v>
+        <v>156</v>
       </c>
       <c r="D66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E66" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F66" t="n">
         <v>0.0</v>
@@ -2999,27 +3021,27 @@
         <v>14</v>
       </c>
       <c r="I66" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J66" t="s">
-        <v>132</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B67" t="n">
-        <v>7128462.0</v>
+        <v>4937495.0</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>158</v>
       </c>
       <c r="D67" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E67" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F67" t="n">
         <v>0.0</v>
@@ -3031,27 +3053,27 @@
         <v>14</v>
       </c>
       <c r="I67" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J67" t="s">
-        <v>134</v>
+        <v>159</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B68" t="n">
-        <v>2.030203E7</v>
+        <v>5229138.0</v>
       </c>
       <c r="C68" t="s">
-        <v>135</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E68" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F68" t="n">
         <v>0.0</v>
@@ -3063,27 +3085,27 @@
         <v>14</v>
       </c>
       <c r="I68" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J68" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="B69" t="n">
-        <v>2220054.0</v>
+        <v>5273138.0</v>
       </c>
       <c r="C69" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E69" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F69" t="n">
         <v>0.0</v>
@@ -3095,27 +3117,27 @@
         <v>14</v>
       </c>
       <c r="I69" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J69" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="B70" t="n">
-        <v>2518626.0</v>
+        <v>3127532.0</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E70" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F70" t="n">
         <v>0.0</v>
@@ -3127,27 +3149,27 @@
         <v>14</v>
       </c>
       <c r="I70" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J70" t="s">
-        <v>141</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="B71" t="n">
-        <v>2518627.0</v>
+        <v>3333333.0</v>
       </c>
       <c r="C71" t="s">
-        <v>142</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E71" t="s">
-        <v>24</v>
+        <v>132</v>
       </c>
       <c r="F71" t="n">
         <v>0.0</v>
@@ -3159,27 +3181,27 @@
         <v>14</v>
       </c>
       <c r="I71" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J71" t="s">
-        <v>143</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>137</v>
+        <v>10</v>
       </c>
       <c r="B72" t="n">
-        <v>2518628.0</v>
+        <v>2950319.0</v>
       </c>
       <c r="C72" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="D72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E72" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F72" t="n">
         <v>0.0</v>
@@ -3191,27 +3213,27 @@
         <v>14</v>
       </c>
       <c r="I72" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J72" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="B73" t="n">
-        <v>2518629.0</v>
+        <v>2597431.0</v>
       </c>
       <c r="C73" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="D73" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E73" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F73" t="n">
         <v>0.0</v>
@@ -3223,27 +3245,27 @@
         <v>14</v>
       </c>
       <c r="I73" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J73" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>137</v>
+        <v>17</v>
       </c>
       <c r="B74" t="n">
-        <v>3014529.0</v>
+        <v>3014524.0</v>
       </c>
       <c r="C74" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="D74" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E74" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F74" t="n">
         <v>0.0</v>
@@ -3255,27 +3277,27 @@
         <v>14</v>
       </c>
       <c r="I74" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J74" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="B75" t="n">
-        <v>3463072.0</v>
+        <v>2512831.0</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E75" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F75" t="n">
         <v>0.0</v>
@@ -3287,27 +3309,27 @@
         <v>14</v>
       </c>
       <c r="I75" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J75" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="B76" t="n">
-        <v>3905103.0</v>
+        <v>2512832.0</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="D76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F76" t="n">
         <v>0.0</v>
@@ -3319,27 +3341,27 @@
         <v>14</v>
       </c>
       <c r="I76" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J76" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="B77" t="n">
-        <v>6145529.0</v>
+        <v>2512833.0</v>
       </c>
       <c r="C77" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="D77" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E77" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F77" t="n">
         <v>0.0</v>
@@ -3351,27 +3373,27 @@
         <v>14</v>
       </c>
       <c r="I77" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J77" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="B78" t="n">
-        <v>6145530.0</v>
+        <v>2512834.0</v>
       </c>
       <c r="C78" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E78" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F78" t="n">
         <v>0.0</v>
@@ -3383,27 +3405,27 @@
         <v>14</v>
       </c>
       <c r="I78" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J78" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="B79" t="n">
-        <v>6145531.0</v>
+        <v>2512835.0</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="D79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E79" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F79" t="n">
         <v>0.0</v>
@@ -3415,27 +3437,27 @@
         <v>14</v>
       </c>
       <c r="I79" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J79" t="s">
-        <v>159</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>137</v>
+        <v>24</v>
       </c>
       <c r="B80" t="n">
-        <v>6145532.0</v>
+        <v>2512836.0</v>
       </c>
       <c r="C80" t="s">
-        <v>160</v>
+        <v>185</v>
       </c>
       <c r="D80" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E80" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F80" t="n">
         <v>0.0</v>
@@ -3447,27 +3469,27 @@
         <v>14</v>
       </c>
       <c r="I80" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J80" t="s">
-        <v>161</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="B81" t="n">
-        <v>6145533.0</v>
+        <v>2518626.0</v>
       </c>
       <c r="C81" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
       <c r="D81" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E81" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F81" t="n">
         <v>0.0</v>
@@ -3479,27 +3501,27 @@
         <v>14</v>
       </c>
       <c r="I81" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J81" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="B82" t="n">
-        <v>6145534.0</v>
+        <v>2518627.0</v>
       </c>
       <c r="C82" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="D82" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E82" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F82" t="n">
         <v>0.0</v>
@@ -3511,27 +3533,27 @@
         <v>14</v>
       </c>
       <c r="I82" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J82" t="s">
-        <v>165</v>
+        <v>190</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="B83" t="n">
-        <v>6148723.0</v>
+        <v>2518628.0</v>
       </c>
       <c r="C83" t="s">
-        <v>166</v>
+        <v>191</v>
       </c>
       <c r="D83" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E83" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F83" t="n">
         <v>0.0</v>
@@ -3543,27 +3565,27 @@
         <v>14</v>
       </c>
       <c r="I83" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J83" t="s">
-        <v>167</v>
+        <v>192</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>137</v>
+        <v>38</v>
       </c>
       <c r="B84" t="n">
-        <v>8312496.0</v>
+        <v>2518629.0</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>193</v>
       </c>
       <c r="D84" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E84" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F84" t="n">
         <v>0.0</v>
@@ -3575,27 +3597,27 @@
         <v>14</v>
       </c>
       <c r="I84" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J84" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="B85" t="n">
-        <v>2220020.0</v>
+        <v>2597420.0</v>
       </c>
       <c r="C85" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="D85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E85" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F85" t="n">
         <v>0.0</v>
@@ -3607,27 +3629,27 @@
         <v>14</v>
       </c>
       <c r="I85" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J85" t="s">
-        <v>22</v>
+        <v>196</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="B86" t="n">
-        <v>2597420.0</v>
+        <v>2950316.0</v>
       </c>
       <c r="C86" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="D86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E86" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F86" t="n">
         <v>0.0</v>
@@ -3639,27 +3661,27 @@
         <v>14</v>
       </c>
       <c r="I86" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J86" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="B87" t="n">
-        <v>2950316.0</v>
+        <v>2952319.0</v>
       </c>
       <c r="C87" t="s">
-        <v>174</v>
+        <v>199</v>
       </c>
       <c r="D87" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E87" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F87" t="n">
         <v>0.0</v>
@@ -3671,27 +3693,27 @@
         <v>14</v>
       </c>
       <c r="I87" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J87" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>170</v>
+        <v>51</v>
       </c>
       <c r="B88" t="n">
-        <v>4937491.0</v>
+        <v>3014523.0</v>
       </c>
       <c r="C88" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="D88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E88" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F88" t="n">
         <v>0.0</v>
@@ -3703,27 +3725,27 @@
         <v>14</v>
       </c>
       <c r="I88" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J88" t="s">
-        <v>177</v>
+        <v>202</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
       <c r="B89" t="n">
-        <v>6145535.0</v>
+        <v>2597430.0</v>
       </c>
       <c r="C89" t="s">
-        <v>178</v>
+        <v>203</v>
       </c>
       <c r="D89" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E89" t="s">
-        <v>24</v>
+        <v>169</v>
       </c>
       <c r="F89" t="n">
         <v>0.0</v>
@@ -3735,27 +3757,27 @@
         <v>14</v>
       </c>
       <c r="I89" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J89" t="s">
-        <v>179</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B90" t="n">
-        <v>6145536.0</v>
+        <v>2220026.0</v>
       </c>
       <c r="C90" t="s">
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="D90" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E90" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F90" t="n">
         <v>0.0</v>
@@ -3767,27 +3789,27 @@
         <v>14</v>
       </c>
       <c r="I90" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J90" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B91" t="n">
-        <v>6732398.0</v>
+        <v>2220501.0</v>
       </c>
       <c r="C91" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
       <c r="D91" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E91" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F91" t="n">
         <v>0.0</v>
@@ -3799,27 +3821,27 @@
         <v>14</v>
       </c>
       <c r="I91" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J91" t="s">
-        <v>183</v>
+        <v>16</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B92" t="n">
-        <v>7128464.0</v>
+        <v>2220502.0</v>
       </c>
       <c r="C92" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="D92" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F92" t="n">
         <v>0.0</v>
@@ -3831,27 +3853,27 @@
         <v>14</v>
       </c>
       <c r="I92" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J92" t="s">
-        <v>185</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>170</v>
+        <v>10</v>
       </c>
       <c r="B93" t="n">
-        <v>8933122.0</v>
+        <v>2220503.0</v>
       </c>
       <c r="C93" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="D93" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F93" t="n">
         <v>0.0</v>
@@ -3863,27 +3885,27 @@
         <v>14</v>
       </c>
       <c r="I93" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J93" t="s">
-        <v>187</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B94" t="n">
-        <v>1487123.0</v>
+        <v>2220504.0</v>
       </c>
       <c r="C94" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E94" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F94" t="n">
         <v>0.0</v>
@@ -3895,27 +3917,27 @@
         <v>14</v>
       </c>
       <c r="I94" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J94" t="s">
-        <v>190</v>
+        <v>16</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B95" t="n">
-        <v>2220021.0</v>
+        <v>2220505.0</v>
       </c>
       <c r="C95" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E95" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F95" t="n">
         <v>0.0</v>
@@ -3927,27 +3949,27 @@
         <v>14</v>
       </c>
       <c r="I95" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J95" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>188</v>
+        <v>17</v>
       </c>
       <c r="B96" t="n">
-        <v>2397431.0</v>
+        <v>2220392.0</v>
       </c>
       <c r="C96" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="D96" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E96" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F96" t="n">
         <v>0.0</v>
@@ -3959,27 +3981,27 @@
         <v>14</v>
       </c>
       <c r="I96" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J96" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="B97" t="n">
-        <v>3044524.0</v>
+        <v>2220243.0</v>
       </c>
       <c r="C97" t="s">
-        <v>194</v>
+        <v>215</v>
       </c>
       <c r="D97" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E97" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F97" t="n">
         <v>0.0</v>
@@ -3991,27 +4013,27 @@
         <v>14</v>
       </c>
       <c r="I97" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J97" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="B98" t="n">
-        <v>3905179.0</v>
+        <v>2512827.0</v>
       </c>
       <c r="C98" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="D98" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E98" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F98" t="n">
         <v>0.0</v>
@@ -4023,27 +4045,27 @@
         <v>14</v>
       </c>
       <c r="I98" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J98" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="B99" t="n">
-        <v>4237496.0</v>
+        <v>2512828.0</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="D99" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E99" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F99" t="n">
         <v>0.0</v>
@@ -4055,27 +4077,27 @@
         <v>14</v>
       </c>
       <c r="I99" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J99" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="B100" t="n">
-        <v>6148724.0</v>
+        <v>2512829.0</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="D100" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F100" t="n">
         <v>0.0</v>
@@ -4087,27 +4109,27 @@
         <v>14</v>
       </c>
       <c r="I100" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J100" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>24</v>
       </c>
       <c r="B101" t="n">
-        <v>6148726.0</v>
+        <v>2512830.0</v>
       </c>
       <c r="C101" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="D101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E101" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F101" t="n">
         <v>0.0</v>
@@ -4119,27 +4141,27 @@
         <v>14</v>
       </c>
       <c r="I101" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J101" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="B102" t="n">
-        <v>6148727.0</v>
+        <v>2220638.0</v>
       </c>
       <c r="C102" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="D102" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F102" t="n">
         <v>0.0</v>
@@ -4151,28 +4173,28 @@
         <v>14</v>
       </c>
       <c r="I102" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J102" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>188</v>
+        <v>28</v>
       </c>
       <c r="B103" t="n">
-        <v>6148728.0</v>
+        <v>2396343.0</v>
       </c>
       <c r="C103" t="s">
+        <v>227</v>
+      </c>
+      <c r="D103" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" t="s">
         <v>206</v>
       </c>
-      <c r="D103" t="s">
-        <v>11</v>
-      </c>
-      <c r="E103" t="s">
-        <v>24</v>
-      </c>
       <c r="F103" t="n">
         <v>0.0</v>
       </c>
@@ -4183,27 +4205,27 @@
         <v>14</v>
       </c>
       <c r="I103" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J103" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>33</v>
       </c>
       <c r="B104" t="n">
-        <v>6148729.0</v>
+        <v>2220025.0</v>
       </c>
       <c r="C104" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="D104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E104" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F104" t="n">
         <v>0.0</v>
@@ -4215,27 +4237,27 @@
         <v>14</v>
       </c>
       <c r="I104" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J104" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>188</v>
+        <v>38</v>
       </c>
       <c r="B105" t="n">
-        <v>6148739.0</v>
+        <v>2220054.0</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="D105" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E105" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F105" t="n">
         <v>0.0</v>
@@ -4247,27 +4269,27 @@
         <v>14</v>
       </c>
       <c r="I105" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J105" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="B106" t="n">
-        <v>6148740.0</v>
+        <v>2397431.0</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="D106" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E106" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F106" t="n">
         <v>0.0</v>
@@ -4279,27 +4301,27 @@
         <v>14</v>
       </c>
       <c r="I106" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J106" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>188</v>
+        <v>51</v>
       </c>
       <c r="B107" t="n">
-        <v>8423073.0</v>
+        <v>2220023.0</v>
       </c>
       <c r="C107" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="D107" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E107" t="s">
-        <v>24</v>
+        <v>206</v>
       </c>
       <c r="F107" t="n">
         <v>0.0</v>
@@ -4311,27 +4333,27 @@
         <v>14</v>
       </c>
       <c r="I107" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J107" t="s">
-        <v>215</v>
+        <v>16</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>188</v>
+        <v>10</v>
       </c>
       <c r="B108" t="n">
-        <v>8923125.0</v>
+        <v>2220005.0</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="D108" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E108" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F108" t="n">
         <v>0.0</v>
@@ -4343,27 +4365,27 @@
         <v>14</v>
       </c>
       <c r="I108" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J108" t="s">
-        <v>217</v>
+        <v>16</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B109" t="n">
-        <v>2220023.0</v>
+        <v>2220006.0</v>
       </c>
       <c r="C109" t="s">
-        <v>219</v>
+        <v>238</v>
       </c>
       <c r="D109" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E109" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F109" t="n">
         <v>0.0</v>
@@ -4375,27 +4397,27 @@
         <v>14</v>
       </c>
       <c r="I109" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J109" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B110" t="n">
-        <v>2952319.0</v>
+        <v>2220007.0</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="D110" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E110" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F110" t="n">
         <v>0.0</v>
@@ -4407,27 +4429,27 @@
         <v>14</v>
       </c>
       <c r="I110" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J110" t="s">
-        <v>221</v>
+        <v>16</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B111" t="n">
-        <v>3014523.0</v>
+        <v>2220008.0</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="D111" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E111" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F111" t="n">
         <v>0.0</v>
@@ -4439,27 +4461,27 @@
         <v>14</v>
       </c>
       <c r="I111" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J111" t="s">
-        <v>223</v>
+        <v>16</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B112" t="n">
-        <v>3129688.0</v>
+        <v>2220009.0</v>
       </c>
       <c r="C112" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="D112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E112" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F112" t="n">
         <v>0.0</v>
@@ -4471,27 +4493,27 @@
         <v>14</v>
       </c>
       <c r="I112" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J112" t="s">
-        <v>225</v>
+        <v>16</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B113" t="n">
-        <v>3905099.0</v>
+        <v>2220010.0</v>
       </c>
       <c r="C113" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="D113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E113" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F113" t="n">
         <v>0.0</v>
@@ -4503,27 +4525,27 @@
         <v>14</v>
       </c>
       <c r="I113" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J113" t="s">
-        <v>227</v>
+        <v>16</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B114" t="n">
-        <v>4937495.0</v>
+        <v>2220011.0</v>
       </c>
       <c r="C114" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="D114" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E114" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F114" t="n">
         <v>0.0</v>
@@ -4535,27 +4557,27 @@
         <v>14</v>
       </c>
       <c r="I114" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J114" t="s">
-        <v>229</v>
+        <v>16</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B115" t="n">
-        <v>5229138.0</v>
+        <v>2220012.0</v>
       </c>
       <c r="C115" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="D115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E115" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F115" t="n">
         <v>0.0</v>
@@ -4567,27 +4589,27 @@
         <v>14</v>
       </c>
       <c r="I115" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J115" t="s">
-        <v>231</v>
+        <v>16</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B116" t="n">
-        <v>5273138.0</v>
+        <v>2220013.0</v>
       </c>
       <c r="C116" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="D116" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E116" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F116" t="n">
         <v>0.0</v>
@@ -4599,27 +4621,27 @@
         <v>14</v>
       </c>
       <c r="I116" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J116" t="s">
-        <v>233</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B117" t="n">
-        <v>6145528.0</v>
+        <v>2220014.0</v>
       </c>
       <c r="C117" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="D117" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E117" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F117" t="n">
         <v>0.0</v>
@@ -4631,27 +4653,27 @@
         <v>14</v>
       </c>
       <c r="I117" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J117" t="s">
-        <v>235</v>
+        <v>16</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B118" t="n">
-        <v>6731396.0</v>
+        <v>2220015.0</v>
       </c>
       <c r="C118" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="D118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E118" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F118" t="n">
         <v>0.0</v>
@@ -4663,27 +4685,27 @@
         <v>14</v>
       </c>
       <c r="I118" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J118" t="s">
-        <v>237</v>
+        <v>16</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B119" t="n">
-        <v>7328462.0</v>
+        <v>2220016.0</v>
       </c>
       <c r="C119" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E119" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F119" t="n">
         <v>0.0</v>
@@ -4695,27 +4717,27 @@
         <v>14</v>
       </c>
       <c r="I119" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J119" t="s">
-        <v>239</v>
+        <v>16</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>218</v>
+        <v>10</v>
       </c>
       <c r="B120" t="n">
-        <v>8463072.0</v>
+        <v>2220017.0</v>
       </c>
       <c r="C120" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="D120" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E120" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F120" t="n">
         <v>0.0</v>
@@ -4727,27 +4749,27 @@
         <v>14</v>
       </c>
       <c r="I120" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J120" t="s">
-        <v>241</v>
+        <v>16</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="B121" t="n">
-        <v>1487192.0</v>
+        <v>2220018.0</v>
       </c>
       <c r="C121" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D121" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E121" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F121" t="n">
         <v>0.0</v>
@@ -4759,27 +4781,27 @@
         <v>14</v>
       </c>
       <c r="I121" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J121" t="s">
-        <v>244</v>
+        <v>16</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="B122" t="n">
-        <v>2220003.0</v>
+        <v>2220019.0</v>
       </c>
       <c r="C122" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E122" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F122" t="n">
         <v>0.0</v>
@@ -4791,27 +4813,27 @@
         <v>14</v>
       </c>
       <c r="I122" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J122" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="B123" t="n">
-        <v>2597430.0</v>
+        <v>2220022.0</v>
       </c>
       <c r="C123" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="D123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F123" t="n">
         <v>0.0</v>
@@ -4823,27 +4845,27 @@
         <v>14</v>
       </c>
       <c r="I123" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J123" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="B124" t="n">
-        <v>6148241.0</v>
+        <v>2220020.0</v>
       </c>
       <c r="C124" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="D124" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F124" t="n">
         <v>0.0</v>
@@ -4855,27 +4877,27 @@
         <v>14</v>
       </c>
       <c r="I124" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J124" t="s">
-        <v>249</v>
+        <v>16</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="B125" t="n">
-        <v>6148242.0</v>
+        <v>2220021.0</v>
       </c>
       <c r="C125" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D125" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="F125" t="n">
         <v>0.0</v>
@@ -4887,27 +4909,27 @@
         <v>14</v>
       </c>
       <c r="I125" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J125" t="s">
-        <v>251</v>
+        <v>16</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>242</v>
+        <v>10</v>
       </c>
       <c r="B126" t="n">
-        <v>6148243.0</v>
+        <v>2220002.0</v>
       </c>
       <c r="C126" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D126" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F126" t="n">
         <v>0.0</v>
@@ -4919,27 +4941,27 @@
         <v>14</v>
       </c>
       <c r="I126" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J126" t="s">
-        <v>253</v>
+        <v>16</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>242</v>
+        <v>17</v>
       </c>
       <c r="B127" t="n">
-        <v>6148244.0</v>
+        <v>1679245.0</v>
       </c>
       <c r="C127" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="D127" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F127" t="n">
         <v>0.0</v>
@@ -4951,28 +4973,28 @@
         <v>14</v>
       </c>
       <c r="I127" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J127" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="B128" t="n">
-        <v>6148245.0</v>
+        <v>1852952.0</v>
       </c>
       <c r="C128" t="s">
+        <v>259</v>
+      </c>
+      <c r="D128" t="s">
+        <v>12</v>
+      </c>
+      <c r="E128" t="s">
         <v>256</v>
       </c>
-      <c r="D128" t="s">
-        <v>19</v>
-      </c>
-      <c r="E128" t="s">
-        <v>24</v>
-      </c>
       <c r="F128" t="n">
         <v>0.0</v>
       </c>
@@ -4983,27 +5005,27 @@
         <v>14</v>
       </c>
       <c r="I128" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J128" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="B129" t="n">
-        <v>6148246.0</v>
+        <v>1426258.0</v>
       </c>
       <c r="C129" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="D129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E129" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F129" t="n">
         <v>0.0</v>
@@ -5015,27 +5037,27 @@
         <v>14</v>
       </c>
       <c r="I129" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J129" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>242</v>
+        <v>28</v>
       </c>
       <c r="B130" t="n">
-        <v>6148741.0</v>
+        <v>1723912.0</v>
       </c>
       <c r="C130" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D130" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E130" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F130" t="n">
         <v>0.0</v>
@@ -5047,27 +5069,27 @@
         <v>14</v>
       </c>
       <c r="I130" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J130" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="B131" t="n">
-        <v>6732395.0</v>
+        <v>1487193.0</v>
       </c>
       <c r="C131" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E131" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F131" t="n">
         <v>0.0</v>
@@ -5079,27 +5101,27 @@
         <v>14</v>
       </c>
       <c r="I131" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J131" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>242</v>
+        <v>33</v>
       </c>
       <c r="B132" t="n">
-        <v>7128461.0</v>
+        <v>1487194.0</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="D132" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E132" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F132" t="n">
         <v>0.0</v>
@@ -5111,27 +5133,27 @@
         <v>14</v>
       </c>
       <c r="I132" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J132" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>242</v>
+        <v>46</v>
       </c>
       <c r="B133" t="n">
-        <v>8933124.0</v>
+        <v>1487123.0</v>
       </c>
       <c r="C133" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="D133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E133" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="F133" t="n">
         <v>0.0</v>
@@ -5143,42 +5165,106 @@
         <v>14</v>
       </c>
       <c r="I133" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="J133" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="B134" t="n">
+        <v>1487192.0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>271</v>
+      </c>
+      <c r="D134" t="s">
+        <v>12</v>
+      </c>
+      <c r="E134" t="s">
+        <v>256</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>14</v>
+      </c>
+      <c r="H134" t="s">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>15</v>
+      </c>
+      <c r="J134" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>56</v>
+      </c>
+      <c r="B135" t="n">
+        <v>2220003.0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>273</v>
+      </c>
+      <c r="D135" t="s">
+        <v>12</v>
+      </c>
+      <c r="E135" t="s">
+        <v>256</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>14</v>
+      </c>
+      <c r="H135" t="s">
+        <v>14</v>
+      </c>
+      <c r="I135" t="s">
+        <v>15</v>
+      </c>
+      <c r="J135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>164</v>
+      </c>
+      <c r="B136" t="n">
         <v>2220004.0</v>
       </c>
-      <c r="C134" t="s">
-        <v>268</v>
-      </c>
-      <c r="D134" t="s">
-        <v>19</v>
-      </c>
-      <c r="E134" t="s">
-        <v>24</v>
-      </c>
-      <c r="F134" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="G134" t="s">
-        <v>14</v>
-      </c>
-      <c r="H134" t="s">
-        <v>14</v>
-      </c>
-      <c r="I134" t="s">
-        <v>25</v>
-      </c>
-      <c r="J134" t="s">
-        <v>22</v>
+      <c r="C136" t="s">
+        <v>274</v>
+      </c>
+      <c r="D136" t="s">
+        <v>12</v>
+      </c>
+      <c r="E136" t="s">
+        <v>256</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G136" t="s">
+        <v>14</v>
+      </c>
+      <c r="H136" t="s">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>15</v>
+      </c>
+      <c r="J136" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
